--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H612"/>
+  <dimension ref="A1:H648"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -19115,6 +19115,1098 @@
         </is>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B613" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C613" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D613" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E613" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F613" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G613" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H613" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>173</v>
+      </c>
+      <c r="C614" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D614" t="n">
+        <v>3642</v>
+      </c>
+      <c r="E614" t="n">
+        <v>11</v>
+      </c>
+      <c r="F614" t="n">
+        <v>53</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>55282</v>
+      </c>
+      <c r="C615" t="n">
+        <v>-1615</v>
+      </c>
+      <c r="D615" t="n">
+        <v>651791</v>
+      </c>
+      <c r="E615" t="n">
+        <v>7798</v>
+      </c>
+      <c r="F615" t="n">
+        <v>5941</v>
+      </c>
+      <c r="G615" t="n">
+        <v>41</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C616" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D616" t="n">
+        <v>7388</v>
+      </c>
+      <c r="E616" t="n">
+        <v>205</v>
+      </c>
+      <c r="F616" t="n">
+        <v>18</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>33933</v>
+      </c>
+      <c r="C617" t="n">
+        <v>-195</v>
+      </c>
+      <c r="D617" t="n">
+        <v>150776</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1813</v>
+      </c>
+      <c r="F617" t="n">
+        <v>735</v>
+      </c>
+      <c r="G617" t="n">
+        <v>14</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>11597</v>
+      </c>
+      <c r="C618" t="n">
+        <v>-480</v>
+      </c>
+      <c r="D618" t="n">
+        <v>173932</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1483</v>
+      </c>
+      <c r="F618" t="n">
+        <v>912</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1792</v>
+      </c>
+      <c r="C619" t="n">
+        <v>-89</v>
+      </c>
+      <c r="D619" t="n">
+        <v>10396</v>
+      </c>
+      <c r="E619" t="n">
+        <v>234</v>
+      </c>
+      <c r="F619" t="n">
+        <v>172</v>
+      </c>
+      <c r="G619" t="n">
+        <v>3</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>29292</v>
+      </c>
+      <c r="C620" t="n">
+        <v>-401</v>
+      </c>
+      <c r="D620" t="n">
+        <v>91077</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2982</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1031</v>
+      </c>
+      <c r="G620" t="n">
+        <v>29</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>101</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1</v>
+      </c>
+      <c r="D621" t="n">
+        <v>2967</v>
+      </c>
+      <c r="E621" t="n">
+        <v>8</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>25234</v>
+      </c>
+      <c r="C622" t="n">
+        <v>-1216</v>
+      </c>
+      <c r="D622" t="n">
+        <v>257224</v>
+      </c>
+      <c r="E622" t="n">
+        <v>3440</v>
+      </c>
+      <c r="F622" t="n">
+        <v>5472</v>
+      </c>
+      <c r="G622" t="n">
+        <v>34</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>4923</v>
+      </c>
+      <c r="C623" t="n">
+        <v>-86</v>
+      </c>
+      <c r="D623" t="n">
+        <v>29527</v>
+      </c>
+      <c r="E623" t="n">
+        <v>523</v>
+      </c>
+      <c r="F623" t="n">
+        <v>450</v>
+      </c>
+      <c r="G623" t="n">
+        <v>8</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>16762</v>
+      </c>
+      <c r="C624" t="n">
+        <v>27</v>
+      </c>
+      <c r="D624" t="n">
+        <v>120987</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F624" t="n">
+        <v>3487</v>
+      </c>
+      <c r="G624" t="n">
+        <v>12</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>12868</v>
+      </c>
+      <c r="C625" t="n">
+        <v>-379</v>
+      </c>
+      <c r="D625" t="n">
+        <v>118258</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G625" t="n">
+        <v>25</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>3292</v>
+      </c>
+      <c r="C626" t="n">
+        <v>36</v>
+      </c>
+      <c r="D626" t="n">
+        <v>12193</v>
+      </c>
+      <c r="E626" t="n">
+        <v>197</v>
+      </c>
+      <c r="F626" t="n">
+        <v>210</v>
+      </c>
+      <c r="G626" t="n">
+        <v>8</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>15646</v>
+      </c>
+      <c r="C627" t="n">
+        <v>-443</v>
+      </c>
+      <c r="D627" t="n">
+        <v>61351</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1399</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1231</v>
+      </c>
+      <c r="G627" t="n">
+        <v>19</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>10939</v>
+      </c>
+      <c r="C628" t="n">
+        <v>-304</v>
+      </c>
+      <c r="D628" t="n">
+        <v>74604</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1176</v>
+      </c>
+      <c r="F628" t="n">
+        <v>734</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>112802</v>
+      </c>
+      <c r="C629" t="n">
+        <v>797</v>
+      </c>
+      <c r="D629" t="n">
+        <v>508495</v>
+      </c>
+      <c r="E629" t="n">
+        <v>8989</v>
+      </c>
+      <c r="F629" t="n">
+        <v>9219</v>
+      </c>
+      <c r="G629" t="n">
+        <v>100</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>80900</v>
+      </c>
+      <c r="C630" t="n">
+        <v>3336</v>
+      </c>
+      <c r="D630" t="n">
+        <v>139620</v>
+      </c>
+      <c r="E630" t="n">
+        <v>4476</v>
+      </c>
+      <c r="F630" t="n">
+        <v>813</v>
+      </c>
+      <c r="G630" t="n">
+        <v>22</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C631" t="n">
+        <v>7</v>
+      </c>
+      <c r="D631" t="n">
+        <v>3315</v>
+      </c>
+      <c r="E631" t="n">
+        <v>41</v>
+      </c>
+      <c r="F631" t="n">
+        <v>61</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>19807</v>
+      </c>
+      <c r="C632" t="n">
+        <v>-317</v>
+      </c>
+      <c r="D632" t="n">
+        <v>111712</v>
+      </c>
+      <c r="E632" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2399</v>
+      </c>
+      <c r="G632" t="n">
+        <v>27</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>258548</v>
+      </c>
+      <c r="C633" t="n">
+        <v>-2765</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1134555</v>
+      </c>
+      <c r="E633" t="n">
+        <v>16835</v>
+      </c>
+      <c r="F633" t="n">
+        <v>37758</v>
+      </c>
+      <c r="G633" t="n">
+        <v>278</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C634" t="n">
+        <v>161</v>
+      </c>
+      <c r="D634" t="n">
+        <v>9081</v>
+      </c>
+      <c r="E634" t="n">
+        <v>89</v>
+      </c>
+      <c r="F634" t="n">
+        <v>71</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>2083</v>
+      </c>
+      <c r="C635" t="n">
+        <v>328</v>
+      </c>
+      <c r="D635" t="n">
+        <v>4319</v>
+      </c>
+      <c r="E635" t="n">
+        <v>93</v>
+      </c>
+      <c r="F635" t="n">
+        <v>54</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>348</v>
+      </c>
+      <c r="C636" t="n">
+        <v>4</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E636" t="n">
+        <v>13</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C637" t="n">
+        <v>65</v>
+      </c>
+      <c r="D637" t="n">
+        <v>5257</v>
+      </c>
+      <c r="E637" t="n">
+        <v>46</v>
+      </c>
+      <c r="F637" t="n">
+        <v>17</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>30301</v>
+      </c>
+      <c r="C638" t="n">
+        <v>-1030</v>
+      </c>
+      <c r="D638" t="n">
+        <v>198194</v>
+      </c>
+      <c r="E638" t="n">
+        <v>4066</v>
+      </c>
+      <c r="F638" t="n">
+        <v>892</v>
+      </c>
+      <c r="G638" t="n">
+        <v>17</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>4874</v>
+      </c>
+      <c r="C639" t="n">
+        <v>-180</v>
+      </c>
+      <c r="D639" t="n">
+        <v>23344</v>
+      </c>
+      <c r="E639" t="n">
+        <v>396</v>
+      </c>
+      <c r="F639" t="n">
+        <v>534</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>14289</v>
+      </c>
+      <c r="C640" t="n">
+        <v>-646</v>
+      </c>
+      <c r="D640" t="n">
+        <v>99468</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F640" t="n">
+        <v>3562</v>
+      </c>
+      <c r="G640" t="n">
+        <v>61</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>21075</v>
+      </c>
+      <c r="C641" t="n">
+        <v>133</v>
+      </c>
+      <c r="D641" t="n">
+        <v>119241</v>
+      </c>
+      <c r="E641" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1530</v>
+      </c>
+      <c r="G641" t="n">
+        <v>14</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>640</v>
+      </c>
+      <c r="C642" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D642" t="n">
+        <v>2448</v>
+      </c>
+      <c r="E642" t="n">
+        <v>39</v>
+      </c>
+      <c r="F642" t="n">
+        <v>43</v>
+      </c>
+      <c r="G642" t="n">
+        <v>2</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>46255</v>
+      </c>
+      <c r="C643" t="n">
+        <v>-39</v>
+      </c>
+      <c r="D643" t="n">
+        <v>558534</v>
+      </c>
+      <c r="E643" t="n">
+        <v>5596</v>
+      </c>
+      <c r="F643" t="n">
+        <v>9718</v>
+      </c>
+      <c r="G643" t="n">
+        <v>65</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>27901</v>
+      </c>
+      <c r="C644" t="n">
+        <v>-427</v>
+      </c>
+      <c r="D644" t="n">
+        <v>170212</v>
+      </c>
+      <c r="E644" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1163</v>
+      </c>
+      <c r="G644" t="n">
+        <v>10</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>5171</v>
+      </c>
+      <c r="C645" t="n">
+        <v>-195</v>
+      </c>
+      <c r="D645" t="n">
+        <v>21410</v>
+      </c>
+      <c r="E645" t="n">
+        <v>513</v>
+      </c>
+      <c r="F645" t="n">
+        <v>293</v>
+      </c>
+      <c r="G645" t="n">
+        <v>4</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>8076</v>
+      </c>
+      <c r="C646" t="n">
+        <v>-428</v>
+      </c>
+      <c r="D646" t="n">
+        <v>41338</v>
+      </c>
+      <c r="E646" t="n">
+        <v>919</v>
+      </c>
+      <c r="F646" t="n">
+        <v>648</v>
+      </c>
+      <c r="G646" t="n">
+        <v>12</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>47823</v>
+      </c>
+      <c r="C647" t="n">
+        <v>-1289</v>
+      </c>
+      <c r="D647" t="n">
+        <v>356826</v>
+      </c>
+      <c r="E647" t="n">
+        <v>4860</v>
+      </c>
+      <c r="F647" t="n">
+        <v>5977</v>
+      </c>
+      <c r="G647" t="n">
+        <v>60</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>27130</v>
+      </c>
+      <c r="C648" t="n">
+        <v>265</v>
+      </c>
+      <c r="D648" t="n">
+        <v>234712</v>
+      </c>
+      <c r="E648" t="n">
+        <v>3013</v>
+      </c>
+      <c r="F648" t="n">
+        <v>5132</v>
+      </c>
+      <c r="G648" t="n">
+        <v>62</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>04-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H648"/>
+  <dimension ref="A1:H684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -20207,6 +20207,1098 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B649" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C649" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D649" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E649" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F649" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G649" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H649" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>182</v>
+      </c>
+      <c r="C650" t="n">
+        <v>9</v>
+      </c>
+      <c r="D650" t="n">
+        <v>3649</v>
+      </c>
+      <c r="E650" t="n">
+        <v>7</v>
+      </c>
+      <c r="F650" t="n">
+        <v>53</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>54400</v>
+      </c>
+      <c r="C651" t="n">
+        <v>-882</v>
+      </c>
+      <c r="D651" t="n">
+        <v>658875</v>
+      </c>
+      <c r="E651" t="n">
+        <v>7084</v>
+      </c>
+      <c r="F651" t="n">
+        <v>5981</v>
+      </c>
+      <c r="G651" t="n">
+        <v>40</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>2953</v>
+      </c>
+      <c r="C652" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D652" t="n">
+        <v>7577</v>
+      </c>
+      <c r="E652" t="n">
+        <v>189</v>
+      </c>
+      <c r="F652" t="n">
+        <v>18</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>33324</v>
+      </c>
+      <c r="C653" t="n">
+        <v>-609</v>
+      </c>
+      <c r="D653" t="n">
+        <v>152127</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1351</v>
+      </c>
+      <c r="F653" t="n">
+        <v>749</v>
+      </c>
+      <c r="G653" t="n">
+        <v>14</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>11795</v>
+      </c>
+      <c r="C654" t="n">
+        <v>198</v>
+      </c>
+      <c r="D654" t="n">
+        <v>175458</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1526</v>
+      </c>
+      <c r="F654" t="n">
+        <v>915</v>
+      </c>
+      <c r="G654" t="n">
+        <v>3</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1673</v>
+      </c>
+      <c r="C655" t="n">
+        <v>-119</v>
+      </c>
+      <c r="D655" t="n">
+        <v>10598</v>
+      </c>
+      <c r="E655" t="n">
+        <v>202</v>
+      </c>
+      <c r="F655" t="n">
+        <v>174</v>
+      </c>
+      <c r="G655" t="n">
+        <v>2</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>28548</v>
+      </c>
+      <c r="C656" t="n">
+        <v>-744</v>
+      </c>
+      <c r="D656" t="n">
+        <v>93731</v>
+      </c>
+      <c r="E656" t="n">
+        <v>2654</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G656" t="n">
+        <v>14</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>105</v>
+      </c>
+      <c r="C657" t="n">
+        <v>4</v>
+      </c>
+      <c r="D657" t="n">
+        <v>2980</v>
+      </c>
+      <c r="E657" t="n">
+        <v>13</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>24753</v>
+      </c>
+      <c r="C658" t="n">
+        <v>-481</v>
+      </c>
+      <c r="D658" t="n">
+        <v>260350</v>
+      </c>
+      <c r="E658" t="n">
+        <v>3126</v>
+      </c>
+      <c r="F658" t="n">
+        <v>5510</v>
+      </c>
+      <c r="G658" t="n">
+        <v>38</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>4839</v>
+      </c>
+      <c r="C659" t="n">
+        <v>-84</v>
+      </c>
+      <c r="D659" t="n">
+        <v>30033</v>
+      </c>
+      <c r="E659" t="n">
+        <v>506</v>
+      </c>
+      <c r="F659" t="n">
+        <v>456</v>
+      </c>
+      <c r="G659" t="n">
+        <v>6</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>16809</v>
+      </c>
+      <c r="C660" t="n">
+        <v>47</v>
+      </c>
+      <c r="D660" t="n">
+        <v>122233</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F660" t="n">
+        <v>3496</v>
+      </c>
+      <c r="G660" t="n">
+        <v>9</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>12067</v>
+      </c>
+      <c r="C661" t="n">
+        <v>-801</v>
+      </c>
+      <c r="D661" t="n">
+        <v>120341</v>
+      </c>
+      <c r="E661" t="n">
+        <v>2083</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1470</v>
+      </c>
+      <c r="G661" t="n">
+        <v>20</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>3273</v>
+      </c>
+      <c r="C662" t="n">
+        <v>-19</v>
+      </c>
+      <c r="D662" t="n">
+        <v>12361</v>
+      </c>
+      <c r="E662" t="n">
+        <v>168</v>
+      </c>
+      <c r="F662" t="n">
+        <v>217</v>
+      </c>
+      <c r="G662" t="n">
+        <v>7</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>15460</v>
+      </c>
+      <c r="C663" t="n">
+        <v>-186</v>
+      </c>
+      <c r="D663" t="n">
+        <v>62404</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1242</v>
+      </c>
+      <c r="G663" t="n">
+        <v>11</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>10936</v>
+      </c>
+      <c r="C664" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D664" t="n">
+        <v>75531</v>
+      </c>
+      <c r="E664" t="n">
+        <v>927</v>
+      </c>
+      <c r="F664" t="n">
+        <v>743</v>
+      </c>
+      <c r="G664" t="n">
+        <v>9</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>115593</v>
+      </c>
+      <c r="C665" t="n">
+        <v>2791</v>
+      </c>
+      <c r="D665" t="n">
+        <v>515782</v>
+      </c>
+      <c r="E665" t="n">
+        <v>7287</v>
+      </c>
+      <c r="F665" t="n">
+        <v>9286</v>
+      </c>
+      <c r="G665" t="n">
+        <v>67</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>84579</v>
+      </c>
+      <c r="C666" t="n">
+        <v>3679</v>
+      </c>
+      <c r="D666" t="n">
+        <v>144471</v>
+      </c>
+      <c r="E666" t="n">
+        <v>4851</v>
+      </c>
+      <c r="F666" t="n">
+        <v>836</v>
+      </c>
+      <c r="G666" t="n">
+        <v>23</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1106</v>
+      </c>
+      <c r="C667" t="n">
+        <v>5</v>
+      </c>
+      <c r="D667" t="n">
+        <v>3354</v>
+      </c>
+      <c r="E667" t="n">
+        <v>39</v>
+      </c>
+      <c r="F667" t="n">
+        <v>61</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>19372</v>
+      </c>
+      <c r="C668" t="n">
+        <v>-435</v>
+      </c>
+      <c r="D668" t="n">
+        <v>113832</v>
+      </c>
+      <c r="E668" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2434</v>
+      </c>
+      <c r="G668" t="n">
+        <v>35</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>255722</v>
+      </c>
+      <c r="C669" t="n">
+        <v>-2826</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1149603</v>
+      </c>
+      <c r="E669" t="n">
+        <v>15048</v>
+      </c>
+      <c r="F669" t="n">
+        <v>38084</v>
+      </c>
+      <c r="G669" t="n">
+        <v>326</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>2576</v>
+      </c>
+      <c r="C670" t="n">
+        <v>79</v>
+      </c>
+      <c r="D670" t="n">
+        <v>9205</v>
+      </c>
+      <c r="E670" t="n">
+        <v>124</v>
+      </c>
+      <c r="F670" t="n">
+        <v>74</v>
+      </c>
+      <c r="G670" t="n">
+        <v>3</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>2209</v>
+      </c>
+      <c r="C671" t="n">
+        <v>126</v>
+      </c>
+      <c r="D671" t="n">
+        <v>4393</v>
+      </c>
+      <c r="E671" t="n">
+        <v>74</v>
+      </c>
+      <c r="F671" t="n">
+        <v>54</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>313</v>
+      </c>
+      <c r="C672" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E672" t="n">
+        <v>35</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C673" t="n">
+        <v>71</v>
+      </c>
+      <c r="D673" t="n">
+        <v>5309</v>
+      </c>
+      <c r="E673" t="n">
+        <v>52</v>
+      </c>
+      <c r="F673" t="n">
+        <v>17</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>29504</v>
+      </c>
+      <c r="C674" t="n">
+        <v>-797</v>
+      </c>
+      <c r="D674" t="n">
+        <v>202302</v>
+      </c>
+      <c r="E674" t="n">
+        <v>4108</v>
+      </c>
+      <c r="F674" t="n">
+        <v>907</v>
+      </c>
+      <c r="G674" t="n">
+        <v>15</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>4787</v>
+      </c>
+      <c r="C675" t="n">
+        <v>-87</v>
+      </c>
+      <c r="D675" t="n">
+        <v>23763</v>
+      </c>
+      <c r="E675" t="n">
+        <v>419</v>
+      </c>
+      <c r="F675" t="n">
+        <v>539</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>13577</v>
+      </c>
+      <c r="C676" t="n">
+        <v>-712</v>
+      </c>
+      <c r="D676" t="n">
+        <v>100977</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1509</v>
+      </c>
+      <c r="F676" t="n">
+        <v>3603</v>
+      </c>
+      <c r="G676" t="n">
+        <v>41</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>21154</v>
+      </c>
+      <c r="C677" t="n">
+        <v>79</v>
+      </c>
+      <c r="D677" t="n">
+        <v>121331</v>
+      </c>
+      <c r="E677" t="n">
+        <v>2090</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1545</v>
+      </c>
+      <c r="G677" t="n">
+        <v>15</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>649</v>
+      </c>
+      <c r="C678" t="n">
+        <v>9</v>
+      </c>
+      <c r="D678" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E678" t="n">
+        <v>32</v>
+      </c>
+      <c r="F678" t="n">
+        <v>45</v>
+      </c>
+      <c r="G678" t="n">
+        <v>2</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>46120</v>
+      </c>
+      <c r="C679" t="n">
+        <v>-135</v>
+      </c>
+      <c r="D679" t="n">
+        <v>564092</v>
+      </c>
+      <c r="E679" t="n">
+        <v>5558</v>
+      </c>
+      <c r="F679" t="n">
+        <v>9784</v>
+      </c>
+      <c r="G679" t="n">
+        <v>66</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>27052</v>
+      </c>
+      <c r="C680" t="n">
+        <v>-849</v>
+      </c>
+      <c r="D680" t="n">
+        <v>172388</v>
+      </c>
+      <c r="E680" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1171</v>
+      </c>
+      <c r="G680" t="n">
+        <v>8</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>4858</v>
+      </c>
+      <c r="C681" t="n">
+        <v>-313</v>
+      </c>
+      <c r="D681" t="n">
+        <v>21876</v>
+      </c>
+      <c r="E681" t="n">
+        <v>466</v>
+      </c>
+      <c r="F681" t="n">
+        <v>299</v>
+      </c>
+      <c r="G681" t="n">
+        <v>6</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>9089</v>
+      </c>
+      <c r="C682" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D682" t="n">
+        <v>41740</v>
+      </c>
+      <c r="E682" t="n">
+        <v>402</v>
+      </c>
+      <c r="F682" t="n">
+        <v>652</v>
+      </c>
+      <c r="G682" t="n">
+        <v>4</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>46385</v>
+      </c>
+      <c r="C683" t="n">
+        <v>-1438</v>
+      </c>
+      <c r="D683" t="n">
+        <v>362052</v>
+      </c>
+      <c r="E683" t="n">
+        <v>5226</v>
+      </c>
+      <c r="F683" t="n">
+        <v>6029</v>
+      </c>
+      <c r="G683" t="n">
+        <v>52</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>27439</v>
+      </c>
+      <c r="C684" t="n">
+        <v>309</v>
+      </c>
+      <c r="D684" t="n">
+        <v>237698</v>
+      </c>
+      <c r="E684" t="n">
+        <v>2986</v>
+      </c>
+      <c r="F684" t="n">
+        <v>5194</v>
+      </c>
+      <c r="G684" t="n">
+        <v>62</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>05-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H684"/>
+  <dimension ref="A1:H720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -21299,6 +21299,1098 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B685" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C685" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D685" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E685" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F685" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G685" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H685" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>186</v>
+      </c>
+      <c r="C686" t="n">
+        <v>4</v>
+      </c>
+      <c r="D686" t="n">
+        <v>3659</v>
+      </c>
+      <c r="E686" t="n">
+        <v>10</v>
+      </c>
+      <c r="F686" t="n">
+        <v>54</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>51060</v>
+      </c>
+      <c r="C687" t="n">
+        <v>-3340</v>
+      </c>
+      <c r="D687" t="n">
+        <v>666433</v>
+      </c>
+      <c r="E687" t="n">
+        <v>7558</v>
+      </c>
+      <c r="F687" t="n">
+        <v>6019</v>
+      </c>
+      <c r="G687" t="n">
+        <v>38</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>2989</v>
+      </c>
+      <c r="C688" t="n">
+        <v>36</v>
+      </c>
+      <c r="D688" t="n">
+        <v>7775</v>
+      </c>
+      <c r="E688" t="n">
+        <v>198</v>
+      </c>
+      <c r="F688" t="n">
+        <v>19</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>33467</v>
+      </c>
+      <c r="C689" t="n">
+        <v>143</v>
+      </c>
+      <c r="D689" t="n">
+        <v>153491</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1364</v>
+      </c>
+      <c r="F689" t="n">
+        <v>760</v>
+      </c>
+      <c r="G689" t="n">
+        <v>11</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>11523</v>
+      </c>
+      <c r="C690" t="n">
+        <v>-272</v>
+      </c>
+      <c r="D690" t="n">
+        <v>176995</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1537</v>
+      </c>
+      <c r="F690" t="n">
+        <v>924</v>
+      </c>
+      <c r="G690" t="n">
+        <v>9</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C691" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D691" t="n">
+        <v>10797</v>
+      </c>
+      <c r="E691" t="n">
+        <v>199</v>
+      </c>
+      <c r="F691" t="n">
+        <v>177</v>
+      </c>
+      <c r="G691" t="n">
+        <v>3</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>27857</v>
+      </c>
+      <c r="C692" t="n">
+        <v>-691</v>
+      </c>
+      <c r="D692" t="n">
+        <v>97067</v>
+      </c>
+      <c r="E692" t="n">
+        <v>3336</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1081</v>
+      </c>
+      <c r="G692" t="n">
+        <v>36</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>99</v>
+      </c>
+      <c r="C693" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D693" t="n">
+        <v>2991</v>
+      </c>
+      <c r="E693" t="n">
+        <v>11</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>23080</v>
+      </c>
+      <c r="C694" t="n">
+        <v>-1673</v>
+      </c>
+      <c r="D694" t="n">
+        <v>263938</v>
+      </c>
+      <c r="E694" t="n">
+        <v>3588</v>
+      </c>
+      <c r="F694" t="n">
+        <v>5542</v>
+      </c>
+      <c r="G694" t="n">
+        <v>32</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>4803</v>
+      </c>
+      <c r="C695" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D695" t="n">
+        <v>30456</v>
+      </c>
+      <c r="E695" t="n">
+        <v>423</v>
+      </c>
+      <c r="F695" t="n">
+        <v>460</v>
+      </c>
+      <c r="G695" t="n">
+        <v>4</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>16718</v>
+      </c>
+      <c r="C696" t="n">
+        <v>-91</v>
+      </c>
+      <c r="D696" t="n">
+        <v>123638</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3509</v>
+      </c>
+      <c r="G696" t="n">
+        <v>13</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>11822</v>
+      </c>
+      <c r="C697" t="n">
+        <v>-245</v>
+      </c>
+      <c r="D697" t="n">
+        <v>121596</v>
+      </c>
+      <c r="E697" t="n">
+        <v>1255</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G697" t="n">
+        <v>21</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>3156</v>
+      </c>
+      <c r="C698" t="n">
+        <v>-117</v>
+      </c>
+      <c r="D698" t="n">
+        <v>12653</v>
+      </c>
+      <c r="E698" t="n">
+        <v>292</v>
+      </c>
+      <c r="F698" t="n">
+        <v>224</v>
+      </c>
+      <c r="G698" t="n">
+        <v>7</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>14696</v>
+      </c>
+      <c r="C699" t="n">
+        <v>-764</v>
+      </c>
+      <c r="D699" t="n">
+        <v>63790</v>
+      </c>
+      <c r="E699" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1252</v>
+      </c>
+      <c r="G699" t="n">
+        <v>10</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>10436</v>
+      </c>
+      <c r="C700" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D700" t="n">
+        <v>76843</v>
+      </c>
+      <c r="E700" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F700" t="n">
+        <v>747</v>
+      </c>
+      <c r="G700" t="n">
+        <v>4</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>115496</v>
+      </c>
+      <c r="C701" t="n">
+        <v>-97</v>
+      </c>
+      <c r="D701" t="n">
+        <v>522846</v>
+      </c>
+      <c r="E701" t="n">
+        <v>7064</v>
+      </c>
+      <c r="F701" t="n">
+        <v>9370</v>
+      </c>
+      <c r="G701" t="n">
+        <v>84</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>84958</v>
+      </c>
+      <c r="C702" t="n">
+        <v>379</v>
+      </c>
+      <c r="D702" t="n">
+        <v>149111</v>
+      </c>
+      <c r="E702" t="n">
+        <v>4640</v>
+      </c>
+      <c r="F702" t="n">
+        <v>859</v>
+      </c>
+      <c r="G702" t="n">
+        <v>23</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C703" t="n">
+        <v>60</v>
+      </c>
+      <c r="D703" t="n">
+        <v>3414</v>
+      </c>
+      <c r="E703" t="n">
+        <v>60</v>
+      </c>
+      <c r="F703" t="n">
+        <v>61</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>18757</v>
+      </c>
+      <c r="C704" t="n">
+        <v>-615</v>
+      </c>
+      <c r="D704" t="n">
+        <v>115878</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2046</v>
+      </c>
+      <c r="F704" t="n">
+        <v>2463</v>
+      </c>
+      <c r="G704" t="n">
+        <v>29</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>252721</v>
+      </c>
+      <c r="C705" t="n">
+        <v>-3001</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1162585</v>
+      </c>
+      <c r="E705" t="n">
+        <v>12982</v>
+      </c>
+      <c r="F705" t="n">
+        <v>38347</v>
+      </c>
+      <c r="G705" t="n">
+        <v>263</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>2696</v>
+      </c>
+      <c r="C706" t="n">
+        <v>120</v>
+      </c>
+      <c r="D706" t="n">
+        <v>9334</v>
+      </c>
+      <c r="E706" t="n">
+        <v>129</v>
+      </c>
+      <c r="F706" t="n">
+        <v>75</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>2217</v>
+      </c>
+      <c r="C707" t="n">
+        <v>8</v>
+      </c>
+      <c r="D707" t="n">
+        <v>4491</v>
+      </c>
+      <c r="E707" t="n">
+        <v>98</v>
+      </c>
+      <c r="F707" t="n">
+        <v>59</v>
+      </c>
+      <c r="G707" t="n">
+        <v>5</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>291</v>
+      </c>
+      <c r="C708" t="n">
+        <v>-22</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1837</v>
+      </c>
+      <c r="E708" t="n">
+        <v>30</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0</v>
+      </c>
+      <c r="G708" t="n">
+        <v>0</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C709" t="n">
+        <v>-71</v>
+      </c>
+      <c r="D709" t="n">
+        <v>5422</v>
+      </c>
+      <c r="E709" t="n">
+        <v>113</v>
+      </c>
+      <c r="F709" t="n">
+        <v>17</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>28006</v>
+      </c>
+      <c r="C710" t="n">
+        <v>-1498</v>
+      </c>
+      <c r="D710" t="n">
+        <v>206400</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4098</v>
+      </c>
+      <c r="F710" t="n">
+        <v>924</v>
+      </c>
+      <c r="G710" t="n">
+        <v>17</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>4513</v>
+      </c>
+      <c r="C711" t="n">
+        <v>-274</v>
+      </c>
+      <c r="D711" t="n">
+        <v>24221</v>
+      </c>
+      <c r="E711" t="n">
+        <v>458</v>
+      </c>
+      <c r="F711" t="n">
+        <v>543</v>
+      </c>
+      <c r="G711" t="n">
+        <v>4</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>12895</v>
+      </c>
+      <c r="C712" t="n">
+        <v>-682</v>
+      </c>
+      <c r="D712" t="n">
+        <v>102648</v>
+      </c>
+      <c r="E712" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F712" t="n">
+        <v>3641</v>
+      </c>
+      <c r="G712" t="n">
+        <v>38</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>21215</v>
+      </c>
+      <c r="C713" t="n">
+        <v>61</v>
+      </c>
+      <c r="D713" t="n">
+        <v>123421</v>
+      </c>
+      <c r="E713" t="n">
+        <v>2090</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1559</v>
+      </c>
+      <c r="G713" t="n">
+        <v>14</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>598</v>
+      </c>
+      <c r="C714" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2547</v>
+      </c>
+      <c r="E714" t="n">
+        <v>67</v>
+      </c>
+      <c r="F714" t="n">
+        <v>46</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>45881</v>
+      </c>
+      <c r="C715" t="n">
+        <v>-239</v>
+      </c>
+      <c r="D715" t="n">
+        <v>569664</v>
+      </c>
+      <c r="E715" t="n">
+        <v>5572</v>
+      </c>
+      <c r="F715" t="n">
+        <v>9846</v>
+      </c>
+      <c r="G715" t="n">
+        <v>62</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>26644</v>
+      </c>
+      <c r="C716" t="n">
+        <v>-408</v>
+      </c>
+      <c r="D716" t="n">
+        <v>174769</v>
+      </c>
+      <c r="E716" t="n">
+        <v>2381</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1181</v>
+      </c>
+      <c r="G716" t="n">
+        <v>10</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>4876</v>
+      </c>
+      <c r="C717" t="n">
+        <v>18</v>
+      </c>
+      <c r="D717" t="n">
+        <v>22131</v>
+      </c>
+      <c r="E717" t="n">
+        <v>255</v>
+      </c>
+      <c r="F717" t="n">
+        <v>301</v>
+      </c>
+      <c r="G717" t="n">
+        <v>2</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>8701</v>
+      </c>
+      <c r="C718" t="n">
+        <v>-388</v>
+      </c>
+      <c r="D718" t="n">
+        <v>42621</v>
+      </c>
+      <c r="E718" t="n">
+        <v>881</v>
+      </c>
+      <c r="F718" t="n">
+        <v>669</v>
+      </c>
+      <c r="G718" t="n">
+        <v>17</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C719" t="n">
+        <v>-1361</v>
+      </c>
+      <c r="D719" t="n">
+        <v>366321</v>
+      </c>
+      <c r="E719" t="n">
+        <v>4269</v>
+      </c>
+      <c r="F719" t="n">
+        <v>6092</v>
+      </c>
+      <c r="G719" t="n">
+        <v>63</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>27717</v>
+      </c>
+      <c r="C720" t="n">
+        <v>278</v>
+      </c>
+      <c r="D720" t="n">
+        <v>240707</v>
+      </c>
+      <c r="E720" t="n">
+        <v>3009</v>
+      </c>
+      <c r="F720" t="n">
+        <v>5255</v>
+      </c>
+      <c r="G720" t="n">
+        <v>61</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>06-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H720"/>
+  <dimension ref="A1:H756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -22391,6 +22391,1098 @@
         </is>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B721" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C721" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D721" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E721" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F721" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G721" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H721" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>180</v>
+      </c>
+      <c r="C722" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D722" t="n">
+        <v>3678</v>
+      </c>
+      <c r="E722" t="n">
+        <v>19</v>
+      </c>
+      <c r="F722" t="n">
+        <v>54</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>50776</v>
+      </c>
+      <c r="C723" t="n">
+        <v>-284</v>
+      </c>
+      <c r="D723" t="n">
+        <v>672479</v>
+      </c>
+      <c r="E723" t="n">
+        <v>6046</v>
+      </c>
+      <c r="F723" t="n">
+        <v>6052</v>
+      </c>
+      <c r="G723" t="n">
+        <v>33</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>3022</v>
+      </c>
+      <c r="C724" t="n">
+        <v>33</v>
+      </c>
+      <c r="D724" t="n">
+        <v>7965</v>
+      </c>
+      <c r="E724" t="n">
+        <v>190</v>
+      </c>
+      <c r="F724" t="n">
+        <v>20</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>33047</v>
+      </c>
+      <c r="C725" t="n">
+        <v>-420</v>
+      </c>
+      <c r="D725" t="n">
+        <v>155077</v>
+      </c>
+      <c r="E725" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F725" t="n">
+        <v>778</v>
+      </c>
+      <c r="G725" t="n">
+        <v>18</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>11420</v>
+      </c>
+      <c r="C726" t="n">
+        <v>-103</v>
+      </c>
+      <c r="D726" t="n">
+        <v>178395</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F726" t="n">
+        <v>925</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C727" t="n">
+        <v>-112</v>
+      </c>
+      <c r="D727" t="n">
+        <v>11035</v>
+      </c>
+      <c r="E727" t="n">
+        <v>238</v>
+      </c>
+      <c r="F727" t="n">
+        <v>180</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>27238</v>
+      </c>
+      <c r="C728" t="n">
+        <v>-619</v>
+      </c>
+      <c r="D728" t="n">
+        <v>100551</v>
+      </c>
+      <c r="E728" t="n">
+        <v>3484</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1104</v>
+      </c>
+      <c r="G728" t="n">
+        <v>23</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>101</v>
+      </c>
+      <c r="C729" t="n">
+        <v>2</v>
+      </c>
+      <c r="D729" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E729" t="n">
+        <v>9</v>
+      </c>
+      <c r="F729" t="n">
+        <v>2</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>22720</v>
+      </c>
+      <c r="C730" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D730" t="n">
+        <v>266935</v>
+      </c>
+      <c r="E730" t="n">
+        <v>2997</v>
+      </c>
+      <c r="F730" t="n">
+        <v>5581</v>
+      </c>
+      <c r="G730" t="n">
+        <v>39</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>4720</v>
+      </c>
+      <c r="C731" t="n">
+        <v>-83</v>
+      </c>
+      <c r="D731" t="n">
+        <v>31050</v>
+      </c>
+      <c r="E731" t="n">
+        <v>594</v>
+      </c>
+      <c r="F731" t="n">
+        <v>468</v>
+      </c>
+      <c r="G731" t="n">
+        <v>8</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>16570</v>
+      </c>
+      <c r="C732" t="n">
+        <v>-148</v>
+      </c>
+      <c r="D732" t="n">
+        <v>125111</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F732" t="n">
+        <v>3519</v>
+      </c>
+      <c r="G732" t="n">
+        <v>10</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>11320</v>
+      </c>
+      <c r="C733" t="n">
+        <v>-502</v>
+      </c>
+      <c r="D733" t="n">
+        <v>123286</v>
+      </c>
+      <c r="E733" t="n">
+        <v>1690</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1509</v>
+      </c>
+      <c r="G733" t="n">
+        <v>18</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>3136</v>
+      </c>
+      <c r="C734" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D734" t="n">
+        <v>12918</v>
+      </c>
+      <c r="E734" t="n">
+        <v>265</v>
+      </c>
+      <c r="F734" t="n">
+        <v>229</v>
+      </c>
+      <c r="G734" t="n">
+        <v>5</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>13712</v>
+      </c>
+      <c r="C735" t="n">
+        <v>-984</v>
+      </c>
+      <c r="D735" t="n">
+        <v>65496</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1706</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1268</v>
+      </c>
+      <c r="G735" t="n">
+        <v>16</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>10027</v>
+      </c>
+      <c r="C736" t="n">
+        <v>-409</v>
+      </c>
+      <c r="D736" t="n">
+        <v>78089</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F736" t="n">
+        <v>757</v>
+      </c>
+      <c r="G736" t="n">
+        <v>10</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>115170</v>
+      </c>
+      <c r="C737" t="n">
+        <v>-326</v>
+      </c>
+      <c r="D737" t="n">
+        <v>533074</v>
+      </c>
+      <c r="E737" t="n">
+        <v>10228</v>
+      </c>
+      <c r="F737" t="n">
+        <v>9461</v>
+      </c>
+      <c r="G737" t="n">
+        <v>91</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>87823</v>
+      </c>
+      <c r="C738" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D738" t="n">
+        <v>154092</v>
+      </c>
+      <c r="E738" t="n">
+        <v>4981</v>
+      </c>
+      <c r="F738" t="n">
+        <v>884</v>
+      </c>
+      <c r="G738" t="n">
+        <v>25</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C739" t="n">
+        <v>29</v>
+      </c>
+      <c r="D739" t="n">
+        <v>3464</v>
+      </c>
+      <c r="E739" t="n">
+        <v>50</v>
+      </c>
+      <c r="F739" t="n">
+        <v>61</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>18141</v>
+      </c>
+      <c r="C740" t="n">
+        <v>-616</v>
+      </c>
+      <c r="D740" t="n">
+        <v>118039</v>
+      </c>
+      <c r="E740" t="n">
+        <v>2161</v>
+      </c>
+      <c r="F740" t="n">
+        <v>2488</v>
+      </c>
+      <c r="G740" t="n">
+        <v>25</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>247468</v>
+      </c>
+      <c r="C741" t="n">
+        <v>-5253</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1179726</v>
+      </c>
+      <c r="E741" t="n">
+        <v>17141</v>
+      </c>
+      <c r="F741" t="n">
+        <v>38717</v>
+      </c>
+      <c r="G741" t="n">
+        <v>370</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>2680</v>
+      </c>
+      <c r="C742" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D742" t="n">
+        <v>9482</v>
+      </c>
+      <c r="E742" t="n">
+        <v>148</v>
+      </c>
+      <c r="F742" t="n">
+        <v>78</v>
+      </c>
+      <c r="G742" t="n">
+        <v>3</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>2371</v>
+      </c>
+      <c r="C743" t="n">
+        <v>154</v>
+      </c>
+      <c r="D743" t="n">
+        <v>4606</v>
+      </c>
+      <c r="E743" t="n">
+        <v>115</v>
+      </c>
+      <c r="F743" t="n">
+        <v>60</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>261</v>
+      </c>
+      <c r="C744" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1887</v>
+      </c>
+      <c r="E744" t="n">
+        <v>50</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0</v>
+      </c>
+      <c r="G744" t="n">
+        <v>0</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C745" t="n">
+        <v>30</v>
+      </c>
+      <c r="D745" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E745" t="n">
+        <v>38</v>
+      </c>
+      <c r="F745" t="n">
+        <v>17</v>
+      </c>
+      <c r="G745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>26846</v>
+      </c>
+      <c r="C746" t="n">
+        <v>-1160</v>
+      </c>
+      <c r="D746" t="n">
+        <v>210217</v>
+      </c>
+      <c r="E746" t="n">
+        <v>3817</v>
+      </c>
+      <c r="F746" t="n">
+        <v>940</v>
+      </c>
+      <c r="G746" t="n">
+        <v>16</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>4522</v>
+      </c>
+      <c r="C747" t="n">
+        <v>9</v>
+      </c>
+      <c r="D747" t="n">
+        <v>24614</v>
+      </c>
+      <c r="E747" t="n">
+        <v>393</v>
+      </c>
+      <c r="F747" t="n">
+        <v>546</v>
+      </c>
+      <c r="G747" t="n">
+        <v>3</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>11982</v>
+      </c>
+      <c r="C748" t="n">
+        <v>-913</v>
+      </c>
+      <c r="D748" t="n">
+        <v>104355</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F748" t="n">
+        <v>3679</v>
+      </c>
+      <c r="G748" t="n">
+        <v>38</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>21294</v>
+      </c>
+      <c r="C749" t="n">
+        <v>79</v>
+      </c>
+      <c r="D749" t="n">
+        <v>125448</v>
+      </c>
+      <c r="E749" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1574</v>
+      </c>
+      <c r="G749" t="n">
+        <v>15</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>580</v>
+      </c>
+      <c r="C750" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D750" t="n">
+        <v>2587</v>
+      </c>
+      <c r="E750" t="n">
+        <v>40</v>
+      </c>
+      <c r="F750" t="n">
+        <v>49</v>
+      </c>
+      <c r="G750" t="n">
+        <v>3</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C751" t="n">
+        <v>-602</v>
+      </c>
+      <c r="D751" t="n">
+        <v>575212</v>
+      </c>
+      <c r="E751" t="n">
+        <v>5548</v>
+      </c>
+      <c r="F751" t="n">
+        <v>9917</v>
+      </c>
+      <c r="G751" t="n">
+        <v>71</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>26551</v>
+      </c>
+      <c r="C752" t="n">
+        <v>-93</v>
+      </c>
+      <c r="D752" t="n">
+        <v>177008</v>
+      </c>
+      <c r="E752" t="n">
+        <v>2239</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G752" t="n">
+        <v>8</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C753" t="n">
+        <v>-255</v>
+      </c>
+      <c r="D753" t="n">
+        <v>22623</v>
+      </c>
+      <c r="E753" t="n">
+        <v>492</v>
+      </c>
+      <c r="F753" t="n">
+        <v>301</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>8414</v>
+      </c>
+      <c r="C754" t="n">
+        <v>-287</v>
+      </c>
+      <c r="D754" t="n">
+        <v>43238</v>
+      </c>
+      <c r="E754" t="n">
+        <v>617</v>
+      </c>
+      <c r="F754" t="n">
+        <v>677</v>
+      </c>
+      <c r="G754" t="n">
+        <v>8</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>44031</v>
+      </c>
+      <c r="C755" t="n">
+        <v>-993</v>
+      </c>
+      <c r="D755" t="n">
+        <v>370753</v>
+      </c>
+      <c r="E755" t="n">
+        <v>4432</v>
+      </c>
+      <c r="F755" t="n">
+        <v>6153</v>
+      </c>
+      <c r="G755" t="n">
+        <v>61</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>27988</v>
+      </c>
+      <c r="C756" t="n">
+        <v>271</v>
+      </c>
+      <c r="D756" t="n">
+        <v>243743</v>
+      </c>
+      <c r="E756" t="n">
+        <v>3036</v>
+      </c>
+      <c r="F756" t="n">
+        <v>5318</v>
+      </c>
+      <c r="G756" t="n">
+        <v>63</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>07-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H756"/>
+  <dimension ref="A1:H792"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -23483,6 +23483,1098 @@
         </is>
       </c>
     </row>
+    <row r="757">
+      <c r="A757" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B757" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C757" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D757" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E757" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F757" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G757" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H757" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>185</v>
+      </c>
+      <c r="C758" t="n">
+        <v>5</v>
+      </c>
+      <c r="D758" t="n">
+        <v>3696</v>
+      </c>
+      <c r="E758" t="n">
+        <v>18</v>
+      </c>
+      <c r="F758" t="n">
+        <v>54</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>49513</v>
+      </c>
+      <c r="C759" t="n">
+        <v>-1263</v>
+      </c>
+      <c r="D759" t="n">
+        <v>678828</v>
+      </c>
+      <c r="E759" t="n">
+        <v>6349</v>
+      </c>
+      <c r="F759" t="n">
+        <v>6086</v>
+      </c>
+      <c r="G759" t="n">
+        <v>34</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C760" t="n">
+        <v>-172</v>
+      </c>
+      <c r="D760" t="n">
+        <v>8396</v>
+      </c>
+      <c r="E760" t="n">
+        <v>431</v>
+      </c>
+      <c r="F760" t="n">
+        <v>21</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>31786</v>
+      </c>
+      <c r="C761" t="n">
+        <v>-1261</v>
+      </c>
+      <c r="D761" t="n">
+        <v>157638</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2561</v>
+      </c>
+      <c r="F761" t="n">
+        <v>785</v>
+      </c>
+      <c r="G761" t="n">
+        <v>7</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>11326</v>
+      </c>
+      <c r="C762" t="n">
+        <v>-94</v>
+      </c>
+      <c r="D762" t="n">
+        <v>179732</v>
+      </c>
+      <c r="E762" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F762" t="n">
+        <v>927</v>
+      </c>
+      <c r="G762" t="n">
+        <v>2</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C763" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D763" t="n">
+        <v>11190</v>
+      </c>
+      <c r="E763" t="n">
+        <v>155</v>
+      </c>
+      <c r="F763" t="n">
+        <v>182</v>
+      </c>
+      <c r="G763" t="n">
+        <v>2</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>26777</v>
+      </c>
+      <c r="C764" t="n">
+        <v>-461</v>
+      </c>
+      <c r="D764" t="n">
+        <v>103828</v>
+      </c>
+      <c r="E764" t="n">
+        <v>3277</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1134</v>
+      </c>
+      <c r="G764" t="n">
+        <v>30</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>108</v>
+      </c>
+      <c r="C765" t="n">
+        <v>7</v>
+      </c>
+      <c r="D765" t="n">
+        <v>3010</v>
+      </c>
+      <c r="E765" t="n">
+        <v>10</v>
+      </c>
+      <c r="F765" t="n">
+        <v>2</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>22186</v>
+      </c>
+      <c r="C766" t="n">
+        <v>-534</v>
+      </c>
+      <c r="D766" t="n">
+        <v>270305</v>
+      </c>
+      <c r="E766" t="n">
+        <v>3370</v>
+      </c>
+      <c r="F766" t="n">
+        <v>5616</v>
+      </c>
+      <c r="G766" t="n">
+        <v>35</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>4749</v>
+      </c>
+      <c r="C767" t="n">
+        <v>29</v>
+      </c>
+      <c r="D767" t="n">
+        <v>31444</v>
+      </c>
+      <c r="E767" t="n">
+        <v>394</v>
+      </c>
+      <c r="F767" t="n">
+        <v>477</v>
+      </c>
+      <c r="G767" t="n">
+        <v>9</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>16485</v>
+      </c>
+      <c r="C768" t="n">
+        <v>-85</v>
+      </c>
+      <c r="D768" t="n">
+        <v>126657</v>
+      </c>
+      <c r="E768" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F768" t="n">
+        <v>3531</v>
+      </c>
+      <c r="G768" t="n">
+        <v>12</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>11029</v>
+      </c>
+      <c r="C769" t="n">
+        <v>-291</v>
+      </c>
+      <c r="D769" t="n">
+        <v>124841</v>
+      </c>
+      <c r="E769" t="n">
+        <v>1555</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1528</v>
+      </c>
+      <c r="G769" t="n">
+        <v>19</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>2996</v>
+      </c>
+      <c r="C770" t="n">
+        <v>-140</v>
+      </c>
+      <c r="D770" t="n">
+        <v>13338</v>
+      </c>
+      <c r="E770" t="n">
+        <v>420</v>
+      </c>
+      <c r="F770" t="n">
+        <v>231</v>
+      </c>
+      <c r="G770" t="n">
+        <v>2</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>12131</v>
+      </c>
+      <c r="C771" t="n">
+        <v>-1581</v>
+      </c>
+      <c r="D771" t="n">
+        <v>67684</v>
+      </c>
+      <c r="E771" t="n">
+        <v>2188</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1282</v>
+      </c>
+      <c r="G771" t="n">
+        <v>14</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>9759</v>
+      </c>
+      <c r="C772" t="n">
+        <v>-268</v>
+      </c>
+      <c r="D772" t="n">
+        <v>79176</v>
+      </c>
+      <c r="E772" t="n">
+        <v>1087</v>
+      </c>
+      <c r="F772" t="n">
+        <v>767</v>
+      </c>
+      <c r="G772" t="n">
+        <v>10</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>116172</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D773" t="n">
+        <v>542906</v>
+      </c>
+      <c r="E773" t="n">
+        <v>9832</v>
+      </c>
+      <c r="F773" t="n">
+        <v>9574</v>
+      </c>
+      <c r="G773" t="n">
+        <v>113</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>92246</v>
+      </c>
+      <c r="C774" t="n">
+        <v>4423</v>
+      </c>
+      <c r="D774" t="n">
+        <v>160253</v>
+      </c>
+      <c r="E774" t="n">
+        <v>6161</v>
+      </c>
+      <c r="F774" t="n">
+        <v>906</v>
+      </c>
+      <c r="G774" t="n">
+        <v>22</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C775" t="n">
+        <v>33</v>
+      </c>
+      <c r="D775" t="n">
+        <v>3511</v>
+      </c>
+      <c r="E775" t="n">
+        <v>47</v>
+      </c>
+      <c r="F775" t="n">
+        <v>63</v>
+      </c>
+      <c r="G775" t="n">
+        <v>2</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>17522</v>
+      </c>
+      <c r="C776" t="n">
+        <v>-619</v>
+      </c>
+      <c r="D776" t="n">
+        <v>120267</v>
+      </c>
+      <c r="E776" t="n">
+        <v>2228</v>
+      </c>
+      <c r="F776" t="n">
+        <v>2518</v>
+      </c>
+      <c r="G776" t="n">
+        <v>30</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>244976</v>
+      </c>
+      <c r="C777" t="n">
+        <v>-2492</v>
+      </c>
+      <c r="D777" t="n">
+        <v>1196441</v>
+      </c>
+      <c r="E777" t="n">
+        <v>16715</v>
+      </c>
+      <c r="F777" t="n">
+        <v>39072</v>
+      </c>
+      <c r="G777" t="n">
+        <v>355</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>2805</v>
+      </c>
+      <c r="C778" t="n">
+        <v>125</v>
+      </c>
+      <c r="D778" t="n">
+        <v>9604</v>
+      </c>
+      <c r="E778" t="n">
+        <v>122</v>
+      </c>
+      <c r="F778" t="n">
+        <v>80</v>
+      </c>
+      <c r="G778" t="n">
+        <v>2</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C779" t="n">
+        <v>40</v>
+      </c>
+      <c r="D779" t="n">
+        <v>4694</v>
+      </c>
+      <c r="E779" t="n">
+        <v>88</v>
+      </c>
+      <c r="F779" t="n">
+        <v>60</v>
+      </c>
+      <c r="G779" t="n">
+        <v>0</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>231</v>
+      </c>
+      <c r="C780" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E780" t="n">
+        <v>32</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0</v>
+      </c>
+      <c r="G780" t="n">
+        <v>0</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C781" t="n">
+        <v>15</v>
+      </c>
+      <c r="D781" t="n">
+        <v>5498</v>
+      </c>
+      <c r="E781" t="n">
+        <v>38</v>
+      </c>
+      <c r="F781" t="n">
+        <v>17</v>
+      </c>
+      <c r="G781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>26368</v>
+      </c>
+      <c r="C782" t="n">
+        <v>-478</v>
+      </c>
+      <c r="D782" t="n">
+        <v>213672</v>
+      </c>
+      <c r="E782" t="n">
+        <v>3455</v>
+      </c>
+      <c r="F782" t="n">
+        <v>958</v>
+      </c>
+      <c r="G782" t="n">
+        <v>18</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>4680</v>
+      </c>
+      <c r="C783" t="n">
+        <v>158</v>
+      </c>
+      <c r="D783" t="n">
+        <v>24930</v>
+      </c>
+      <c r="E783" t="n">
+        <v>316</v>
+      </c>
+      <c r="F783" t="n">
+        <v>551</v>
+      </c>
+      <c r="G783" t="n">
+        <v>5</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>11563</v>
+      </c>
+      <c r="C784" t="n">
+        <v>-419</v>
+      </c>
+      <c r="D784" t="n">
+        <v>105585</v>
+      </c>
+      <c r="E784" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F784" t="n">
+        <v>3712</v>
+      </c>
+      <c r="G784" t="n">
+        <v>33</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>21351</v>
+      </c>
+      <c r="C785" t="n">
+        <v>57</v>
+      </c>
+      <c r="D785" t="n">
+        <v>127526</v>
+      </c>
+      <c r="E785" t="n">
+        <v>2078</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G785" t="n">
+        <v>16</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>570</v>
+      </c>
+      <c r="C786" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D786" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E786" t="n">
+        <v>28</v>
+      </c>
+      <c r="F786" t="n">
+        <v>49</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C787" t="n">
+        <v>-144</v>
+      </c>
+      <c r="D787" t="n">
+        <v>580736</v>
+      </c>
+      <c r="E787" t="n">
+        <v>5524</v>
+      </c>
+      <c r="F787" t="n">
+        <v>9984</v>
+      </c>
+      <c r="G787" t="n">
+        <v>67</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>26368</v>
+      </c>
+      <c r="C788" t="n">
+        <v>-183</v>
+      </c>
+      <c r="D788" t="n">
+        <v>179075</v>
+      </c>
+      <c r="E788" t="n">
+        <v>2067</v>
+      </c>
+      <c r="F788" t="n">
+        <v>1201</v>
+      </c>
+      <c r="G788" t="n">
+        <v>12</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>4389</v>
+      </c>
+      <c r="C789" t="n">
+        <v>-232</v>
+      </c>
+      <c r="D789" t="n">
+        <v>23066</v>
+      </c>
+      <c r="E789" t="n">
+        <v>443</v>
+      </c>
+      <c r="F789" t="n">
+        <v>304</v>
+      </c>
+      <c r="G789" t="n">
+        <v>3</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C790" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D790" t="n">
+        <v>43904</v>
+      </c>
+      <c r="E790" t="n">
+        <v>666</v>
+      </c>
+      <c r="F790" t="n">
+        <v>688</v>
+      </c>
+      <c r="G790" t="n">
+        <v>11</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>43154</v>
+      </c>
+      <c r="C791" t="n">
+        <v>-877</v>
+      </c>
+      <c r="D791" t="n">
+        <v>374972</v>
+      </c>
+      <c r="E791" t="n">
+        <v>4219</v>
+      </c>
+      <c r="F791" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G791" t="n">
+        <v>47</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>28361</v>
+      </c>
+      <c r="C792" t="n">
+        <v>373</v>
+      </c>
+      <c r="D792" t="n">
+        <v>246767</v>
+      </c>
+      <c r="E792" t="n">
+        <v>3024</v>
+      </c>
+      <c r="F792" t="n">
+        <v>5376</v>
+      </c>
+      <c r="G792" t="n">
+        <v>58</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>08-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H792"/>
+  <dimension ref="A1:H828"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -24575,6 +24575,1098 @@
         </is>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B793" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C793" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D793" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E793" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F793" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G793" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H793" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>190</v>
+      </c>
+      <c r="C794" t="n">
+        <v>5</v>
+      </c>
+      <c r="D794" t="n">
+        <v>3707</v>
+      </c>
+      <c r="E794" t="n">
+        <v>11</v>
+      </c>
+      <c r="F794" t="n">
+        <v>55</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>48661</v>
+      </c>
+      <c r="C795" t="n">
+        <v>-852</v>
+      </c>
+      <c r="D795" t="n">
+        <v>684930</v>
+      </c>
+      <c r="E795" t="n">
+        <v>6102</v>
+      </c>
+      <c r="F795" t="n">
+        <v>6128</v>
+      </c>
+      <c r="G795" t="n">
+        <v>42</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>2778</v>
+      </c>
+      <c r="C796" t="n">
+        <v>-72</v>
+      </c>
+      <c r="D796" t="n">
+        <v>8679</v>
+      </c>
+      <c r="E796" t="n">
+        <v>283</v>
+      </c>
+      <c r="F796" t="n">
+        <v>22</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>30767</v>
+      </c>
+      <c r="C797" t="n">
+        <v>-1019</v>
+      </c>
+      <c r="D797" t="n">
+        <v>159836</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2198</v>
+      </c>
+      <c r="F797" t="n">
+        <v>794</v>
+      </c>
+      <c r="G797" t="n">
+        <v>9</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>11447</v>
+      </c>
+      <c r="C798" t="n">
+        <v>121</v>
+      </c>
+      <c r="D798" t="n">
+        <v>180696</v>
+      </c>
+      <c r="E798" t="n">
+        <v>964</v>
+      </c>
+      <c r="F798" t="n">
+        <v>929</v>
+      </c>
+      <c r="G798" t="n">
+        <v>2</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C799" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D799" t="n">
+        <v>11344</v>
+      </c>
+      <c r="E799" t="n">
+        <v>154</v>
+      </c>
+      <c r="F799" t="n">
+        <v>186</v>
+      </c>
+      <c r="G799" t="n">
+        <v>4</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>27427</v>
+      </c>
+      <c r="C800" t="n">
+        <v>650</v>
+      </c>
+      <c r="D800" t="n">
+        <v>106027</v>
+      </c>
+      <c r="E800" t="n">
+        <v>2199</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G800" t="n">
+        <v>24</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>105</v>
+      </c>
+      <c r="C801" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D801" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E801" t="n">
+        <v>15</v>
+      </c>
+      <c r="F801" t="n">
+        <v>2</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>22232</v>
+      </c>
+      <c r="C802" t="n">
+        <v>46</v>
+      </c>
+      <c r="D802" t="n">
+        <v>272948</v>
+      </c>
+      <c r="E802" t="n">
+        <v>2643</v>
+      </c>
+      <c r="F802" t="n">
+        <v>5653</v>
+      </c>
+      <c r="G802" t="n">
+        <v>37</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>4716</v>
+      </c>
+      <c r="C803" t="n">
+        <v>-33</v>
+      </c>
+      <c r="D803" t="n">
+        <v>31902</v>
+      </c>
+      <c r="E803" t="n">
+        <v>458</v>
+      </c>
+      <c r="F803" t="n">
+        <v>484</v>
+      </c>
+      <c r="G803" t="n">
+        <v>7</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>16465</v>
+      </c>
+      <c r="C804" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D804" t="n">
+        <v>127786</v>
+      </c>
+      <c r="E804" t="n">
+        <v>1129</v>
+      </c>
+      <c r="F804" t="n">
+        <v>3538</v>
+      </c>
+      <c r="G804" t="n">
+        <v>7</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>10867</v>
+      </c>
+      <c r="C805" t="n">
+        <v>-162</v>
+      </c>
+      <c r="D805" t="n">
+        <v>126267</v>
+      </c>
+      <c r="E805" t="n">
+        <v>1426</v>
+      </c>
+      <c r="F805" t="n">
+        <v>1548</v>
+      </c>
+      <c r="G805" t="n">
+        <v>20</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>2943</v>
+      </c>
+      <c r="C806" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D806" t="n">
+        <v>13597</v>
+      </c>
+      <c r="E806" t="n">
+        <v>259</v>
+      </c>
+      <c r="F806" t="n">
+        <v>238</v>
+      </c>
+      <c r="G806" t="n">
+        <v>7</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>11482</v>
+      </c>
+      <c r="C807" t="n">
+        <v>-649</v>
+      </c>
+      <c r="D807" t="n">
+        <v>69020</v>
+      </c>
+      <c r="E807" t="n">
+        <v>1336</v>
+      </c>
+      <c r="F807" t="n">
+        <v>1291</v>
+      </c>
+      <c r="G807" t="n">
+        <v>9</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>9272</v>
+      </c>
+      <c r="C808" t="n">
+        <v>-487</v>
+      </c>
+      <c r="D808" t="n">
+        <v>80439</v>
+      </c>
+      <c r="E808" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F808" t="n">
+        <v>775</v>
+      </c>
+      <c r="G808" t="n">
+        <v>8</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>117162</v>
+      </c>
+      <c r="C809" t="n">
+        <v>990</v>
+      </c>
+      <c r="D809" t="n">
+        <v>552519</v>
+      </c>
+      <c r="E809" t="n">
+        <v>9613</v>
+      </c>
+      <c r="F809" t="n">
+        <v>9675</v>
+      </c>
+      <c r="G809" t="n">
+        <v>101</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>90664</v>
+      </c>
+      <c r="C810" t="n">
+        <v>-1582</v>
+      </c>
+      <c r="D810" t="n">
+        <v>167256</v>
+      </c>
+      <c r="E810" t="n">
+        <v>7003</v>
+      </c>
+      <c r="F810" t="n">
+        <v>930</v>
+      </c>
+      <c r="G810" t="n">
+        <v>24</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C811" t="n">
+        <v>71</v>
+      </c>
+      <c r="D811" t="n">
+        <v>3540</v>
+      </c>
+      <c r="E811" t="n">
+        <v>29</v>
+      </c>
+      <c r="F811" t="n">
+        <v>63</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>16788</v>
+      </c>
+      <c r="C812" t="n">
+        <v>-734</v>
+      </c>
+      <c r="D812" t="n">
+        <v>122687</v>
+      </c>
+      <c r="E812" t="n">
+        <v>2420</v>
+      </c>
+      <c r="F812" t="n">
+        <v>2547</v>
+      </c>
+      <c r="G812" t="n">
+        <v>29</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>242438</v>
+      </c>
+      <c r="C813" t="n">
+        <v>-2538</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1212016</v>
+      </c>
+      <c r="E813" t="n">
+        <v>15575</v>
+      </c>
+      <c r="F813" t="n">
+        <v>39430</v>
+      </c>
+      <c r="G813" t="n">
+        <v>358</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C814" t="n">
+        <v>72</v>
+      </c>
+      <c r="D814" t="n">
+        <v>9719</v>
+      </c>
+      <c r="E814" t="n">
+        <v>115</v>
+      </c>
+      <c r="F814" t="n">
+        <v>83</v>
+      </c>
+      <c r="G814" t="n">
+        <v>3</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>2369</v>
+      </c>
+      <c r="C815" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D815" t="n">
+        <v>4832</v>
+      </c>
+      <c r="E815" t="n">
+        <v>138</v>
+      </c>
+      <c r="F815" t="n">
+        <v>60</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>220</v>
+      </c>
+      <c r="C816" t="n">
+        <v>-11</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1937</v>
+      </c>
+      <c r="E816" t="n">
+        <v>18</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C817" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D817" t="n">
+        <v>5564</v>
+      </c>
+      <c r="E817" t="n">
+        <v>66</v>
+      </c>
+      <c r="F817" t="n">
+        <v>17</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>26184</v>
+      </c>
+      <c r="C818" t="n">
+        <v>-184</v>
+      </c>
+      <c r="D818" t="n">
+        <v>216984</v>
+      </c>
+      <c r="E818" t="n">
+        <v>3312</v>
+      </c>
+      <c r="F818" t="n">
+        <v>974</v>
+      </c>
+      <c r="G818" t="n">
+        <v>16</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>4727</v>
+      </c>
+      <c r="C819" t="n">
+        <v>47</v>
+      </c>
+      <c r="D819" t="n">
+        <v>25256</v>
+      </c>
+      <c r="E819" t="n">
+        <v>326</v>
+      </c>
+      <c r="F819" t="n">
+        <v>556</v>
+      </c>
+      <c r="G819" t="n">
+        <v>5</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>10775</v>
+      </c>
+      <c r="C820" t="n">
+        <v>-788</v>
+      </c>
+      <c r="D820" t="n">
+        <v>107200</v>
+      </c>
+      <c r="E820" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F820" t="n">
+        <v>3741</v>
+      </c>
+      <c r="G820" t="n">
+        <v>29</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>21382</v>
+      </c>
+      <c r="C821" t="n">
+        <v>31</v>
+      </c>
+      <c r="D821" t="n">
+        <v>129618</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2092</v>
+      </c>
+      <c r="F821" t="n">
+        <v>1605</v>
+      </c>
+      <c r="G821" t="n">
+        <v>15</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>545</v>
+      </c>
+      <c r="C822" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D822" t="n">
+        <v>2650</v>
+      </c>
+      <c r="E822" t="n">
+        <v>35</v>
+      </c>
+      <c r="F822" t="n">
+        <v>51</v>
+      </c>
+      <c r="G822" t="n">
+        <v>2</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>44437</v>
+      </c>
+      <c r="C823" t="n">
+        <v>-698</v>
+      </c>
+      <c r="D823" t="n">
+        <v>586454</v>
+      </c>
+      <c r="E823" t="n">
+        <v>5718</v>
+      </c>
+      <c r="F823" t="n">
+        <v>10052</v>
+      </c>
+      <c r="G823" t="n">
+        <v>68</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>26374</v>
+      </c>
+      <c r="C824" t="n">
+        <v>6</v>
+      </c>
+      <c r="D824" t="n">
+        <v>180953</v>
+      </c>
+      <c r="E824" t="n">
+        <v>1878</v>
+      </c>
+      <c r="F824" t="n">
+        <v>1208</v>
+      </c>
+      <c r="G824" t="n">
+        <v>7</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>4197</v>
+      </c>
+      <c r="C825" t="n">
+        <v>-192</v>
+      </c>
+      <c r="D825" t="n">
+        <v>23474</v>
+      </c>
+      <c r="E825" t="n">
+        <v>408</v>
+      </c>
+      <c r="F825" t="n">
+        <v>311</v>
+      </c>
+      <c r="G825" t="n">
+        <v>7</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>7849</v>
+      </c>
+      <c r="C826" t="n">
+        <v>-518</v>
+      </c>
+      <c r="D826" t="n">
+        <v>44808</v>
+      </c>
+      <c r="E826" t="n">
+        <v>904</v>
+      </c>
+      <c r="F826" t="n">
+        <v>702</v>
+      </c>
+      <c r="G826" t="n">
+        <v>14</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C827" t="n">
+        <v>-602</v>
+      </c>
+      <c r="D827" t="n">
+        <v>378662</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3690</v>
+      </c>
+      <c r="F827" t="n">
+        <v>6245</v>
+      </c>
+      <c r="G827" t="n">
+        <v>45</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>28854</v>
+      </c>
+      <c r="C828" t="n">
+        <v>493</v>
+      </c>
+      <c r="D828" t="n">
+        <v>249737</v>
+      </c>
+      <c r="E828" t="n">
+        <v>2970</v>
+      </c>
+      <c r="F828" t="n">
+        <v>5439</v>
+      </c>
+      <c r="G828" t="n">
+        <v>63</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>09-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H828"/>
+  <dimension ref="A1:H864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -25667,6 +25667,1098 @@
         </is>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B829" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C829" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D829" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E829" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F829" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G829" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H829" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>197</v>
+      </c>
+      <c r="C830" t="n">
+        <v>7</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3724</v>
+      </c>
+      <c r="E830" t="n">
+        <v>17</v>
+      </c>
+      <c r="F830" t="n">
+        <v>55</v>
+      </c>
+      <c r="G830" t="n">
+        <v>0</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>47665</v>
+      </c>
+      <c r="C831" t="n">
+        <v>-996</v>
+      </c>
+      <c r="D831" t="n">
+        <v>691040</v>
+      </c>
+      <c r="E831" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F831" t="n">
+        <v>6159</v>
+      </c>
+      <c r="G831" t="n">
+        <v>31</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C832" t="n">
+        <v>82</v>
+      </c>
+      <c r="D832" t="n">
+        <v>8877</v>
+      </c>
+      <c r="E832" t="n">
+        <v>198</v>
+      </c>
+      <c r="F832" t="n">
+        <v>23</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>29710</v>
+      </c>
+      <c r="C833" t="n">
+        <v>-1057</v>
+      </c>
+      <c r="D833" t="n">
+        <v>161904</v>
+      </c>
+      <c r="E833" t="n">
+        <v>2068</v>
+      </c>
+      <c r="F833" t="n">
+        <v>802</v>
+      </c>
+      <c r="G833" t="n">
+        <v>8</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>11274</v>
+      </c>
+      <c r="C834" t="n">
+        <v>-173</v>
+      </c>
+      <c r="D834" t="n">
+        <v>182121</v>
+      </c>
+      <c r="E834" t="n">
+        <v>1425</v>
+      </c>
+      <c r="F834" t="n">
+        <v>934</v>
+      </c>
+      <c r="G834" t="n">
+        <v>5</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C835" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D835" t="n">
+        <v>11505</v>
+      </c>
+      <c r="E835" t="n">
+        <v>161</v>
+      </c>
+      <c r="F835" t="n">
+        <v>188</v>
+      </c>
+      <c r="G835" t="n">
+        <v>2</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>27439</v>
+      </c>
+      <c r="C836" t="n">
+        <v>12</v>
+      </c>
+      <c r="D836" t="n">
+        <v>108935</v>
+      </c>
+      <c r="E836" t="n">
+        <v>2908</v>
+      </c>
+      <c r="F836" t="n">
+        <v>1196</v>
+      </c>
+      <c r="G836" t="n">
+        <v>38</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>101</v>
+      </c>
+      <c r="C837" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3037</v>
+      </c>
+      <c r="E837" t="n">
+        <v>12</v>
+      </c>
+      <c r="F837" t="n">
+        <v>2</v>
+      </c>
+      <c r="G837" t="n">
+        <v>0</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>21955</v>
+      </c>
+      <c r="C838" t="n">
+        <v>-277</v>
+      </c>
+      <c r="D838" t="n">
+        <v>276046</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F838" t="n">
+        <v>5692</v>
+      </c>
+      <c r="G838" t="n">
+        <v>39</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>4783</v>
+      </c>
+      <c r="C839" t="n">
+        <v>67</v>
+      </c>
+      <c r="D839" t="n">
+        <v>32317</v>
+      </c>
+      <c r="E839" t="n">
+        <v>415</v>
+      </c>
+      <c r="F839" t="n">
+        <v>491</v>
+      </c>
+      <c r="G839" t="n">
+        <v>7</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>16181</v>
+      </c>
+      <c r="C840" t="n">
+        <v>-284</v>
+      </c>
+      <c r="D840" t="n">
+        <v>129304</v>
+      </c>
+      <c r="E840" t="n">
+        <v>1518</v>
+      </c>
+      <c r="F840" t="n">
+        <v>3547</v>
+      </c>
+      <c r="G840" t="n">
+        <v>9</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C841" t="n">
+        <v>-37</v>
+      </c>
+      <c r="D841" t="n">
+        <v>127540</v>
+      </c>
+      <c r="E841" t="n">
+        <v>1273</v>
+      </c>
+      <c r="F841" t="n">
+        <v>1562</v>
+      </c>
+      <c r="G841" t="n">
+        <v>14</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>2856</v>
+      </c>
+      <c r="C842" t="n">
+        <v>-87</v>
+      </c>
+      <c r="D842" t="n">
+        <v>13876</v>
+      </c>
+      <c r="E842" t="n">
+        <v>279</v>
+      </c>
+      <c r="F842" t="n">
+        <v>245</v>
+      </c>
+      <c r="G842" t="n">
+        <v>7</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>11144</v>
+      </c>
+      <c r="C843" t="n">
+        <v>-338</v>
+      </c>
+      <c r="D843" t="n">
+        <v>69979</v>
+      </c>
+      <c r="E843" t="n">
+        <v>959</v>
+      </c>
+      <c r="F843" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G843" t="n">
+        <v>15</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>8819</v>
+      </c>
+      <c r="C844" t="n">
+        <v>-453</v>
+      </c>
+      <c r="D844" t="n">
+        <v>81654</v>
+      </c>
+      <c r="E844" t="n">
+        <v>1215</v>
+      </c>
+      <c r="F844" t="n">
+        <v>781</v>
+      </c>
+      <c r="G844" t="n">
+        <v>6</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>118870</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1708</v>
+      </c>
+      <c r="D845" t="n">
+        <v>561610</v>
+      </c>
+      <c r="E845" t="n">
+        <v>9091</v>
+      </c>
+      <c r="F845" t="n">
+        <v>9789</v>
+      </c>
+      <c r="G845" t="n">
+        <v>114</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>91841</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1177</v>
+      </c>
+      <c r="D846" t="n">
+        <v>175304</v>
+      </c>
+      <c r="E846" t="n">
+        <v>8048</v>
+      </c>
+      <c r="F846" t="n">
+        <v>955</v>
+      </c>
+      <c r="G846" t="n">
+        <v>25</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C847" t="n">
+        <v>-261</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3886</v>
+      </c>
+      <c r="E847" t="n">
+        <v>346</v>
+      </c>
+      <c r="F847" t="n">
+        <v>63</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>16168</v>
+      </c>
+      <c r="C848" t="n">
+        <v>-620</v>
+      </c>
+      <c r="D848" t="n">
+        <v>124887</v>
+      </c>
+      <c r="E848" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F848" t="n">
+        <v>2574</v>
+      </c>
+      <c r="G848" t="n">
+        <v>27</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>236947</v>
+      </c>
+      <c r="C849" t="n">
+        <v>-5491</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1229339</v>
+      </c>
+      <c r="E849" t="n">
+        <v>17323</v>
+      </c>
+      <c r="F849" t="n">
+        <v>39732</v>
+      </c>
+      <c r="G849" t="n">
+        <v>302</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>2858</v>
+      </c>
+      <c r="C850" t="n">
+        <v>-19</v>
+      </c>
+      <c r="D850" t="n">
+        <v>9866</v>
+      </c>
+      <c r="E850" t="n">
+        <v>147</v>
+      </c>
+      <c r="F850" t="n">
+        <v>86</v>
+      </c>
+      <c r="G850" t="n">
+        <v>3</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>2424</v>
+      </c>
+      <c r="C851" t="n">
+        <v>55</v>
+      </c>
+      <c r="D851" t="n">
+        <v>4903</v>
+      </c>
+      <c r="E851" t="n">
+        <v>71</v>
+      </c>
+      <c r="F851" t="n">
+        <v>61</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>188</v>
+      </c>
+      <c r="C852" t="n">
+        <v>-32</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E852" t="n">
+        <v>37</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+      <c r="G852" t="n">
+        <v>0</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C853" t="n">
+        <v>60</v>
+      </c>
+      <c r="D853" t="n">
+        <v>5656</v>
+      </c>
+      <c r="E853" t="n">
+        <v>92</v>
+      </c>
+      <c r="F853" t="n">
+        <v>17</v>
+      </c>
+      <c r="G853" t="n">
+        <v>0</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>25460</v>
+      </c>
+      <c r="C854" t="n">
+        <v>-724</v>
+      </c>
+      <c r="D854" t="n">
+        <v>220388</v>
+      </c>
+      <c r="E854" t="n">
+        <v>3404</v>
+      </c>
+      <c r="F854" t="n">
+        <v>991</v>
+      </c>
+      <c r="G854" t="n">
+        <v>17</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>4803</v>
+      </c>
+      <c r="C855" t="n">
+        <v>76</v>
+      </c>
+      <c r="D855" t="n">
+        <v>25543</v>
+      </c>
+      <c r="E855" t="n">
+        <v>287</v>
+      </c>
+      <c r="F855" t="n">
+        <v>558</v>
+      </c>
+      <c r="G855" t="n">
+        <v>2</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>10153</v>
+      </c>
+      <c r="C856" t="n">
+        <v>-622</v>
+      </c>
+      <c r="D856" t="n">
+        <v>108533</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F856" t="n">
+        <v>3773</v>
+      </c>
+      <c r="G856" t="n">
+        <v>32</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>21398</v>
+      </c>
+      <c r="C857" t="n">
+        <v>16</v>
+      </c>
+      <c r="D857" t="n">
+        <v>131766</v>
+      </c>
+      <c r="E857" t="n">
+        <v>2148</v>
+      </c>
+      <c r="F857" t="n">
+        <v>1621</v>
+      </c>
+      <c r="G857" t="n">
+        <v>16</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>504</v>
+      </c>
+      <c r="C858" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D858" t="n">
+        <v>2721</v>
+      </c>
+      <c r="E858" t="n">
+        <v>71</v>
+      </c>
+      <c r="F858" t="n">
+        <v>53</v>
+      </c>
+      <c r="G858" t="n">
+        <v>2</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C859" t="n">
+        <v>-240</v>
+      </c>
+      <c r="D859" t="n">
+        <v>591811</v>
+      </c>
+      <c r="E859" t="n">
+        <v>5357</v>
+      </c>
+      <c r="F859" t="n">
+        <v>10120</v>
+      </c>
+      <c r="G859" t="n">
+        <v>68</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>26104</v>
+      </c>
+      <c r="C860" t="n">
+        <v>-270</v>
+      </c>
+      <c r="D860" t="n">
+        <v>183025</v>
+      </c>
+      <c r="E860" t="n">
+        <v>2072</v>
+      </c>
+      <c r="F860" t="n">
+        <v>1217</v>
+      </c>
+      <c r="G860" t="n">
+        <v>9</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>4039</v>
+      </c>
+      <c r="C861" t="n">
+        <v>-158</v>
+      </c>
+      <c r="D861" t="n">
+        <v>23801</v>
+      </c>
+      <c r="E861" t="n">
+        <v>327</v>
+      </c>
+      <c r="F861" t="n">
+        <v>313</v>
+      </c>
+      <c r="G861" t="n">
+        <v>2</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>7289</v>
+      </c>
+      <c r="C862" t="n">
+        <v>-560</v>
+      </c>
+      <c r="D862" t="n">
+        <v>46058</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F862" t="n">
+        <v>716</v>
+      </c>
+      <c r="G862" t="n">
+        <v>14</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>41287</v>
+      </c>
+      <c r="C863" t="n">
+        <v>-1265</v>
+      </c>
+      <c r="D863" t="n">
+        <v>383086</v>
+      </c>
+      <c r="E863" t="n">
+        <v>4424</v>
+      </c>
+      <c r="F863" t="n">
+        <v>6293</v>
+      </c>
+      <c r="G863" t="n">
+        <v>48</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>29296</v>
+      </c>
+      <c r="C864" t="n">
+        <v>442</v>
+      </c>
+      <c r="D864" t="n">
+        <v>252806</v>
+      </c>
+      <c r="E864" t="n">
+        <v>3069</v>
+      </c>
+      <c r="F864" t="n">
+        <v>5501</v>
+      </c>
+      <c r="G864" t="n">
+        <v>62</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>10-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H864"/>
+  <dimension ref="A1:H900"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -26759,6 +26759,1098 @@
         </is>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B865" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C865" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D865" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E865" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F865" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G865" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H865" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>193</v>
+      </c>
+      <c r="C866" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D866" t="n">
+        <v>3744</v>
+      </c>
+      <c r="E866" t="n">
+        <v>20</v>
+      </c>
+      <c r="F866" t="n">
+        <v>55</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>46624</v>
+      </c>
+      <c r="C867" t="n">
+        <v>-1041</v>
+      </c>
+      <c r="D867" t="n">
+        <v>697699</v>
+      </c>
+      <c r="E867" t="n">
+        <v>6659</v>
+      </c>
+      <c r="F867" t="n">
+        <v>6194</v>
+      </c>
+      <c r="G867" t="n">
+        <v>35</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C868" t="n">
+        <v>80</v>
+      </c>
+      <c r="D868" t="n">
+        <v>9035</v>
+      </c>
+      <c r="E868" t="n">
+        <v>158</v>
+      </c>
+      <c r="F868" t="n">
+        <v>23</v>
+      </c>
+      <c r="G868" t="n">
+        <v>0</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>29221</v>
+      </c>
+      <c r="C869" t="n">
+        <v>-489</v>
+      </c>
+      <c r="D869" t="n">
+        <v>163355</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1451</v>
+      </c>
+      <c r="F869" t="n">
+        <v>811</v>
+      </c>
+      <c r="G869" t="n">
+        <v>9</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>11165</v>
+      </c>
+      <c r="C870" t="n">
+        <v>-109</v>
+      </c>
+      <c r="D870" t="n">
+        <v>183390</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F870" t="n">
+        <v>944</v>
+      </c>
+      <c r="G870" t="n">
+        <v>10</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C871" t="n">
+        <v>-63</v>
+      </c>
+      <c r="D871" t="n">
+        <v>11662</v>
+      </c>
+      <c r="E871" t="n">
+        <v>157</v>
+      </c>
+      <c r="F871" t="n">
+        <v>190</v>
+      </c>
+      <c r="G871" t="n">
+        <v>2</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>27369</v>
+      </c>
+      <c r="C872" t="n">
+        <v>-70</v>
+      </c>
+      <c r="D872" t="n">
+        <v>111654</v>
+      </c>
+      <c r="E872" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F872" t="n">
+        <v>1235</v>
+      </c>
+      <c r="G872" t="n">
+        <v>39</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>100</v>
+      </c>
+      <c r="C873" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D873" t="n">
+        <v>3050</v>
+      </c>
+      <c r="E873" t="n">
+        <v>13</v>
+      </c>
+      <c r="F873" t="n">
+        <v>2</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>22007</v>
+      </c>
+      <c r="C874" t="n">
+        <v>52</v>
+      </c>
+      <c r="D874" t="n">
+        <v>278812</v>
+      </c>
+      <c r="E874" t="n">
+        <v>2766</v>
+      </c>
+      <c r="F874" t="n">
+        <v>5740</v>
+      </c>
+      <c r="G874" t="n">
+        <v>48</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>4658</v>
+      </c>
+      <c r="C875" t="n">
+        <v>-125</v>
+      </c>
+      <c r="D875" t="n">
+        <v>32777</v>
+      </c>
+      <c r="E875" t="n">
+        <v>460</v>
+      </c>
+      <c r="F875" t="n">
+        <v>499</v>
+      </c>
+      <c r="G875" t="n">
+        <v>8</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>15936</v>
+      </c>
+      <c r="C876" t="n">
+        <v>-245</v>
+      </c>
+      <c r="D876" t="n">
+        <v>130760</v>
+      </c>
+      <c r="E876" t="n">
+        <v>1456</v>
+      </c>
+      <c r="F876" t="n">
+        <v>3557</v>
+      </c>
+      <c r="G876" t="n">
+        <v>10</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>10677</v>
+      </c>
+      <c r="C877" t="n">
+        <v>-153</v>
+      </c>
+      <c r="D877" t="n">
+        <v>128841</v>
+      </c>
+      <c r="E877" t="n">
+        <v>1301</v>
+      </c>
+      <c r="F877" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G877" t="n">
+        <v>10</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>2718</v>
+      </c>
+      <c r="C878" t="n">
+        <v>-138</v>
+      </c>
+      <c r="D878" t="n">
+        <v>14278</v>
+      </c>
+      <c r="E878" t="n">
+        <v>402</v>
+      </c>
+      <c r="F878" t="n">
+        <v>248</v>
+      </c>
+      <c r="G878" t="n">
+        <v>3</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>10796</v>
+      </c>
+      <c r="C879" t="n">
+        <v>-348</v>
+      </c>
+      <c r="D879" t="n">
+        <v>70955</v>
+      </c>
+      <c r="E879" t="n">
+        <v>976</v>
+      </c>
+      <c r="F879" t="n">
+        <v>1313</v>
+      </c>
+      <c r="G879" t="n">
+        <v>7</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>8362</v>
+      </c>
+      <c r="C880" t="n">
+        <v>-457</v>
+      </c>
+      <c r="D880" t="n">
+        <v>82805</v>
+      </c>
+      <c r="E880" t="n">
+        <v>1151</v>
+      </c>
+      <c r="F880" t="n">
+        <v>784</v>
+      </c>
+      <c r="G880" t="n">
+        <v>3</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>120948</v>
+      </c>
+      <c r="C881" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D881" t="n">
+        <v>569947</v>
+      </c>
+      <c r="E881" t="n">
+        <v>8337</v>
+      </c>
+      <c r="F881" t="n">
+        <v>9891</v>
+      </c>
+      <c r="G881" t="n">
+        <v>102</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>96003</v>
+      </c>
+      <c r="C882" t="n">
+        <v>4162</v>
+      </c>
+      <c r="D882" t="n">
+        <v>182874</v>
+      </c>
+      <c r="E882" t="n">
+        <v>7570</v>
+      </c>
+      <c r="F882" t="n">
+        <v>978</v>
+      </c>
+      <c r="G882" t="n">
+        <v>23</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C883" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D883" t="n">
+        <v>3973</v>
+      </c>
+      <c r="E883" t="n">
+        <v>87</v>
+      </c>
+      <c r="F883" t="n">
+        <v>64</v>
+      </c>
+      <c r="G883" t="n">
+        <v>1</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>15612</v>
+      </c>
+      <c r="C884" t="n">
+        <v>-556</v>
+      </c>
+      <c r="D884" t="n">
+        <v>127034</v>
+      </c>
+      <c r="E884" t="n">
+        <v>2147</v>
+      </c>
+      <c r="F884" t="n">
+        <v>2599</v>
+      </c>
+      <c r="G884" t="n">
+        <v>25</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>221615</v>
+      </c>
+      <c r="C885" t="n">
+        <v>-15332</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1255779</v>
+      </c>
+      <c r="E885" t="n">
+        <v>26440</v>
+      </c>
+      <c r="F885" t="n">
+        <v>40040</v>
+      </c>
+      <c r="G885" t="n">
+        <v>308</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>2608</v>
+      </c>
+      <c r="C886" t="n">
+        <v>-250</v>
+      </c>
+      <c r="D886" t="n">
+        <v>10396</v>
+      </c>
+      <c r="E886" t="n">
+        <v>530</v>
+      </c>
+      <c r="F886" t="n">
+        <v>88</v>
+      </c>
+      <c r="G886" t="n">
+        <v>2</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>2437</v>
+      </c>
+      <c r="C887" t="n">
+        <v>13</v>
+      </c>
+      <c r="D887" t="n">
+        <v>5045</v>
+      </c>
+      <c r="E887" t="n">
+        <v>142</v>
+      </c>
+      <c r="F887" t="n">
+        <v>62</v>
+      </c>
+      <c r="G887" t="n">
+        <v>1</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>191</v>
+      </c>
+      <c r="C888" t="n">
+        <v>3</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E888" t="n">
+        <v>10</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G888" t="n">
+        <v>0</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C889" t="n">
+        <v>23</v>
+      </c>
+      <c r="D889" t="n">
+        <v>5694</v>
+      </c>
+      <c r="E889" t="n">
+        <v>38</v>
+      </c>
+      <c r="F889" t="n">
+        <v>17</v>
+      </c>
+      <c r="G889" t="n">
+        <v>0</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>24414</v>
+      </c>
+      <c r="C890" t="n">
+        <v>-1046</v>
+      </c>
+      <c r="D890" t="n">
+        <v>224273</v>
+      </c>
+      <c r="E890" t="n">
+        <v>3885</v>
+      </c>
+      <c r="F890" t="n">
+        <v>1006</v>
+      </c>
+      <c r="G890" t="n">
+        <v>15</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>4719</v>
+      </c>
+      <c r="C891" t="n">
+        <v>-84</v>
+      </c>
+      <c r="D891" t="n">
+        <v>25955</v>
+      </c>
+      <c r="E891" t="n">
+        <v>412</v>
+      </c>
+      <c r="F891" t="n">
+        <v>559</v>
+      </c>
+      <c r="G891" t="n">
+        <v>1</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>9752</v>
+      </c>
+      <c r="C892" t="n">
+        <v>-401</v>
+      </c>
+      <c r="D892" t="n">
+        <v>109767</v>
+      </c>
+      <c r="E892" t="n">
+        <v>1234</v>
+      </c>
+      <c r="F892" t="n">
+        <v>3798</v>
+      </c>
+      <c r="G892" t="n">
+        <v>25</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>21354</v>
+      </c>
+      <c r="C893" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D893" t="n">
+        <v>133918</v>
+      </c>
+      <c r="E893" t="n">
+        <v>2152</v>
+      </c>
+      <c r="F893" t="n">
+        <v>1636</v>
+      </c>
+      <c r="G893" t="n">
+        <v>15</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>450</v>
+      </c>
+      <c r="C894" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D894" t="n">
+        <v>2816</v>
+      </c>
+      <c r="E894" t="n">
+        <v>95</v>
+      </c>
+      <c r="F894" t="n">
+        <v>55</v>
+      </c>
+      <c r="G894" t="n">
+        <v>2</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>44150</v>
+      </c>
+      <c r="C895" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D895" t="n">
+        <v>597033</v>
+      </c>
+      <c r="E895" t="n">
+        <v>5222</v>
+      </c>
+      <c r="F895" t="n">
+        <v>10187</v>
+      </c>
+      <c r="G895" t="n">
+        <v>67</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>25713</v>
+      </c>
+      <c r="C896" t="n">
+        <v>-391</v>
+      </c>
+      <c r="D896" t="n">
+        <v>185128</v>
+      </c>
+      <c r="E896" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F896" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G896" t="n">
+        <v>5</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>3951</v>
+      </c>
+      <c r="C897" t="n">
+        <v>-88</v>
+      </c>
+      <c r="D897" t="n">
+        <v>24086</v>
+      </c>
+      <c r="E897" t="n">
+        <v>285</v>
+      </c>
+      <c r="F897" t="n">
+        <v>315</v>
+      </c>
+      <c r="G897" t="n">
+        <v>2</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>7321</v>
+      </c>
+      <c r="C898" t="n">
+        <v>32</v>
+      </c>
+      <c r="D898" t="n">
+        <v>46470</v>
+      </c>
+      <c r="E898" t="n">
+        <v>412</v>
+      </c>
+      <c r="F898" t="n">
+        <v>734</v>
+      </c>
+      <c r="G898" t="n">
+        <v>18</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>40210</v>
+      </c>
+      <c r="C899" t="n">
+        <v>-1077</v>
+      </c>
+      <c r="D899" t="n">
+        <v>387149</v>
+      </c>
+      <c r="E899" t="n">
+        <v>4063</v>
+      </c>
+      <c r="F899" t="n">
+        <v>6353</v>
+      </c>
+      <c r="G899" t="n">
+        <v>60</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>29793</v>
+      </c>
+      <c r="C900" t="n">
+        <v>497</v>
+      </c>
+      <c r="D900" t="n">
+        <v>255838</v>
+      </c>
+      <c r="E900" t="n">
+        <v>3032</v>
+      </c>
+      <c r="F900" t="n">
+        <v>5563</v>
+      </c>
+      <c r="G900" t="n">
+        <v>62</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>11-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H900"/>
+  <dimension ref="A1:H936"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -27851,6 +27851,1098 @@
         </is>
       </c>
     </row>
+    <row r="901">
+      <c r="A901" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B901" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C901" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D901" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E901" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F901" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G901" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H901" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>186</v>
+      </c>
+      <c r="C902" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D902" t="n">
+        <v>3764</v>
+      </c>
+      <c r="E902" t="n">
+        <v>20</v>
+      </c>
+      <c r="F902" t="n">
+        <v>55</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>46295</v>
+      </c>
+      <c r="C903" t="n">
+        <v>-329</v>
+      </c>
+      <c r="D903" t="n">
+        <v>703208</v>
+      </c>
+      <c r="E903" t="n">
+        <v>5509</v>
+      </c>
+      <c r="F903" t="n">
+        <v>6224</v>
+      </c>
+      <c r="G903" t="n">
+        <v>30</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>2891</v>
+      </c>
+      <c r="C904" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D904" t="n">
+        <v>9232</v>
+      </c>
+      <c r="E904" t="n">
+        <v>197</v>
+      </c>
+      <c r="F904" t="n">
+        <v>24</v>
+      </c>
+      <c r="G904" t="n">
+        <v>1</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>28385</v>
+      </c>
+      <c r="C905" t="n">
+        <v>-836</v>
+      </c>
+      <c r="D905" t="n">
+        <v>164582</v>
+      </c>
+      <c r="E905" t="n">
+        <v>1227</v>
+      </c>
+      <c r="F905" t="n">
+        <v>816</v>
+      </c>
+      <c r="G905" t="n">
+        <v>5</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>11044</v>
+      </c>
+      <c r="C906" t="n">
+        <v>-121</v>
+      </c>
+      <c r="D906" t="n">
+        <v>184541</v>
+      </c>
+      <c r="E906" t="n">
+        <v>1151</v>
+      </c>
+      <c r="F906" t="n">
+        <v>946</v>
+      </c>
+      <c r="G906" t="n">
+        <v>2</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C907" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D907" t="n">
+        <v>11787</v>
+      </c>
+      <c r="E907" t="n">
+        <v>125</v>
+      </c>
+      <c r="F907" t="n">
+        <v>191</v>
+      </c>
+      <c r="G907" t="n">
+        <v>1</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>27348</v>
+      </c>
+      <c r="C908" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D908" t="n">
+        <v>113771</v>
+      </c>
+      <c r="E908" t="n">
+        <v>2117</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1253</v>
+      </c>
+      <c r="G908" t="n">
+        <v>18</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>102</v>
+      </c>
+      <c r="C909" t="n">
+        <v>2</v>
+      </c>
+      <c r="D909" t="n">
+        <v>3059</v>
+      </c>
+      <c r="E909" t="n">
+        <v>9</v>
+      </c>
+      <c r="F909" t="n">
+        <v>2</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>21701</v>
+      </c>
+      <c r="C910" t="n">
+        <v>-306</v>
+      </c>
+      <c r="D910" t="n">
+        <v>281869</v>
+      </c>
+      <c r="E910" t="n">
+        <v>3057</v>
+      </c>
+      <c r="F910" t="n">
+        <v>5769</v>
+      </c>
+      <c r="G910" t="n">
+        <v>29</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>4656</v>
+      </c>
+      <c r="C911" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D911" t="n">
+        <v>33203</v>
+      </c>
+      <c r="E911" t="n">
+        <v>426</v>
+      </c>
+      <c r="F911" t="n">
+        <v>507</v>
+      </c>
+      <c r="G911" t="n">
+        <v>8</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>15695</v>
+      </c>
+      <c r="C912" t="n">
+        <v>-241</v>
+      </c>
+      <c r="D912" t="n">
+        <v>132173</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F912" t="n">
+        <v>3566</v>
+      </c>
+      <c r="G912" t="n">
+        <v>9</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>10573</v>
+      </c>
+      <c r="C913" t="n">
+        <v>-104</v>
+      </c>
+      <c r="D913" t="n">
+        <v>130003</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G913" t="n">
+        <v>7</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>2687</v>
+      </c>
+      <c r="C914" t="n">
+        <v>-31</v>
+      </c>
+      <c r="D914" t="n">
+        <v>14471</v>
+      </c>
+      <c r="E914" t="n">
+        <v>193</v>
+      </c>
+      <c r="F914" t="n">
+        <v>250</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>10466</v>
+      </c>
+      <c r="C915" t="n">
+        <v>-330</v>
+      </c>
+      <c r="D915" t="n">
+        <v>71845</v>
+      </c>
+      <c r="E915" t="n">
+        <v>890</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1322</v>
+      </c>
+      <c r="G915" t="n">
+        <v>9</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>8167</v>
+      </c>
+      <c r="C916" t="n">
+        <v>-195</v>
+      </c>
+      <c r="D916" t="n">
+        <v>83571</v>
+      </c>
+      <c r="E916" t="n">
+        <v>766</v>
+      </c>
+      <c r="F916" t="n">
+        <v>787</v>
+      </c>
+      <c r="G916" t="n">
+        <v>3</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>120289</v>
+      </c>
+      <c r="C917" t="n">
+        <v>-659</v>
+      </c>
+      <c r="D917" t="n">
+        <v>580054</v>
+      </c>
+      <c r="E917" t="n">
+        <v>10107</v>
+      </c>
+      <c r="F917" t="n">
+        <v>9966</v>
+      </c>
+      <c r="G917" t="n">
+        <v>75</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>96401</v>
+      </c>
+      <c r="C918" t="n">
+        <v>398</v>
+      </c>
+      <c r="D918" t="n">
+        <v>191798</v>
+      </c>
+      <c r="E918" t="n">
+        <v>8924</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1003</v>
+      </c>
+      <c r="G918" t="n">
+        <v>25</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>980</v>
+      </c>
+      <c r="C919" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D919" t="n">
+        <v>4037</v>
+      </c>
+      <c r="E919" t="n">
+        <v>64</v>
+      </c>
+      <c r="F919" t="n">
+        <v>64</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>15177</v>
+      </c>
+      <c r="C920" t="n">
+        <v>-435</v>
+      </c>
+      <c r="D920" t="n">
+        <v>129019</v>
+      </c>
+      <c r="E920" t="n">
+        <v>1985</v>
+      </c>
+      <c r="F920" t="n">
+        <v>2624</v>
+      </c>
+      <c r="G920" t="n">
+        <v>25</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>221637</v>
+      </c>
+      <c r="C921" t="n">
+        <v>22</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1266240</v>
+      </c>
+      <c r="E921" t="n">
+        <v>10461</v>
+      </c>
+      <c r="F921" t="n">
+        <v>40349</v>
+      </c>
+      <c r="G921" t="n">
+        <v>309</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C922" t="n">
+        <v>123</v>
+      </c>
+      <c r="D922" t="n">
+        <v>10504</v>
+      </c>
+      <c r="E922" t="n">
+        <v>108</v>
+      </c>
+      <c r="F922" t="n">
+        <v>91</v>
+      </c>
+      <c r="G922" t="n">
+        <v>3</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>2478</v>
+      </c>
+      <c r="C923" t="n">
+        <v>41</v>
+      </c>
+      <c r="D923" t="n">
+        <v>5142</v>
+      </c>
+      <c r="E923" t="n">
+        <v>97</v>
+      </c>
+      <c r="F923" t="n">
+        <v>63</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>174</v>
+      </c>
+      <c r="C924" t="n">
+        <v>-17</v>
+      </c>
+      <c r="D924" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E924" t="n">
+        <v>26</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C925" t="n">
+        <v>21</v>
+      </c>
+      <c r="D925" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E925" t="n">
+        <v>49</v>
+      </c>
+      <c r="F925" t="n">
+        <v>17</v>
+      </c>
+      <c r="G925" t="n">
+        <v>0</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>23602</v>
+      </c>
+      <c r="C926" t="n">
+        <v>-812</v>
+      </c>
+      <c r="D926" t="n">
+        <v>227615</v>
+      </c>
+      <c r="E926" t="n">
+        <v>3342</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1022</v>
+      </c>
+      <c r="G926" t="n">
+        <v>16</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>4695</v>
+      </c>
+      <c r="C927" t="n">
+        <v>-24</v>
+      </c>
+      <c r="D927" t="n">
+        <v>26291</v>
+      </c>
+      <c r="E927" t="n">
+        <v>336</v>
+      </c>
+      <c r="F927" t="n">
+        <v>563</v>
+      </c>
+      <c r="G927" t="n">
+        <v>4</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C928" t="n">
+        <v>-477</v>
+      </c>
+      <c r="D928" t="n">
+        <v>110865</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1098</v>
+      </c>
+      <c r="F928" t="n">
+        <v>3833</v>
+      </c>
+      <c r="G928" t="n">
+        <v>35</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>21412</v>
+      </c>
+      <c r="C929" t="n">
+        <v>58</v>
+      </c>
+      <c r="D929" t="n">
+        <v>135990</v>
+      </c>
+      <c r="E929" t="n">
+        <v>2072</v>
+      </c>
+      <c r="F929" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G929" t="n">
+        <v>14</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>384</v>
+      </c>
+      <c r="C930" t="n">
+        <v>-66</v>
+      </c>
+      <c r="D930" t="n">
+        <v>2920</v>
+      </c>
+      <c r="E930" t="n">
+        <v>104</v>
+      </c>
+      <c r="F930" t="n">
+        <v>55</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>44095</v>
+      </c>
+      <c r="C931" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D931" t="n">
+        <v>602038</v>
+      </c>
+      <c r="E931" t="n">
+        <v>5005</v>
+      </c>
+      <c r="F931" t="n">
+        <v>10252</v>
+      </c>
+      <c r="G931" t="n">
+        <v>65</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>24514</v>
+      </c>
+      <c r="C932" t="n">
+        <v>-1199</v>
+      </c>
+      <c r="D932" t="n">
+        <v>187342</v>
+      </c>
+      <c r="E932" t="n">
+        <v>2214</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1228</v>
+      </c>
+      <c r="G932" t="n">
+        <v>6</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>3742</v>
+      </c>
+      <c r="C933" t="n">
+        <v>-209</v>
+      </c>
+      <c r="D933" t="n">
+        <v>24403</v>
+      </c>
+      <c r="E933" t="n">
+        <v>317</v>
+      </c>
+      <c r="F933" t="n">
+        <v>316</v>
+      </c>
+      <c r="G933" t="n">
+        <v>1</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>7373</v>
+      </c>
+      <c r="C934" t="n">
+        <v>52</v>
+      </c>
+      <c r="D934" t="n">
+        <v>46931</v>
+      </c>
+      <c r="E934" t="n">
+        <v>461</v>
+      </c>
+      <c r="F934" t="n">
+        <v>747</v>
+      </c>
+      <c r="G934" t="n">
+        <v>13</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>40019</v>
+      </c>
+      <c r="C935" t="n">
+        <v>-191</v>
+      </c>
+      <c r="D935" t="n">
+        <v>390566</v>
+      </c>
+      <c r="E935" t="n">
+        <v>3417</v>
+      </c>
+      <c r="F935" t="n">
+        <v>6394</v>
+      </c>
+      <c r="G935" t="n">
+        <v>41</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>30236</v>
+      </c>
+      <c r="C936" t="n">
+        <v>443</v>
+      </c>
+      <c r="D936" t="n">
+        <v>258948</v>
+      </c>
+      <c r="E936" t="n">
+        <v>3110</v>
+      </c>
+      <c r="F936" t="n">
+        <v>5622</v>
+      </c>
+      <c r="G936" t="n">
+        <v>59</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>12-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H936"/>
+  <dimension ref="A1:H972"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -28943,6 +28943,1098 @@
         </is>
       </c>
     </row>
+    <row r="937">
+      <c r="A937" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B937" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C937" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D937" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E937" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F937" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G937" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H937" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>198</v>
+      </c>
+      <c r="C938" t="n">
+        <v>12</v>
+      </c>
+      <c r="D938" t="n">
+        <v>3770</v>
+      </c>
+      <c r="E938" t="n">
+        <v>6</v>
+      </c>
+      <c r="F938" t="n">
+        <v>55</v>
+      </c>
+      <c r="G938" t="n">
+        <v>0</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C939" t="n">
+        <v>-2312</v>
+      </c>
+      <c r="D939" t="n">
+        <v>708712</v>
+      </c>
+      <c r="E939" t="n">
+        <v>5504</v>
+      </c>
+      <c r="F939" t="n">
+        <v>6256</v>
+      </c>
+      <c r="G939" t="n">
+        <v>32</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C940" t="n">
+        <v>49</v>
+      </c>
+      <c r="D940" t="n">
+        <v>9403</v>
+      </c>
+      <c r="E940" t="n">
+        <v>171</v>
+      </c>
+      <c r="F940" t="n">
+        <v>24</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>28439</v>
+      </c>
+      <c r="C941" t="n">
+        <v>54</v>
+      </c>
+      <c r="D941" t="n">
+        <v>166039</v>
+      </c>
+      <c r="E941" t="n">
+        <v>1457</v>
+      </c>
+      <c r="F941" t="n">
+        <v>826</v>
+      </c>
+      <c r="G941" t="n">
+        <v>10</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>10669</v>
+      </c>
+      <c r="C942" t="n">
+        <v>-375</v>
+      </c>
+      <c r="D942" t="n">
+        <v>185911</v>
+      </c>
+      <c r="E942" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F942" t="n">
+        <v>955</v>
+      </c>
+      <c r="G942" t="n">
+        <v>9</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C943" t="n">
+        <v>-14</v>
+      </c>
+      <c r="D943" t="n">
+        <v>11898</v>
+      </c>
+      <c r="E943" t="n">
+        <v>111</v>
+      </c>
+      <c r="F943" t="n">
+        <v>192</v>
+      </c>
+      <c r="G943" t="n">
+        <v>1</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>27421</v>
+      </c>
+      <c r="C944" t="n">
+        <v>73</v>
+      </c>
+      <c r="D944" t="n">
+        <v>116540</v>
+      </c>
+      <c r="E944" t="n">
+        <v>2769</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1286</v>
+      </c>
+      <c r="G944" t="n">
+        <v>33</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>102</v>
+      </c>
+      <c r="C945" t="n">
+        <v>0</v>
+      </c>
+      <c r="D945" t="n">
+        <v>3064</v>
+      </c>
+      <c r="E945" t="n">
+        <v>5</v>
+      </c>
+      <c r="F945" t="n">
+        <v>2</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>20535</v>
+      </c>
+      <c r="C946" t="n">
+        <v>-1166</v>
+      </c>
+      <c r="D946" t="n">
+        <v>284844</v>
+      </c>
+      <c r="E946" t="n">
+        <v>2975</v>
+      </c>
+      <c r="F946" t="n">
+        <v>5809</v>
+      </c>
+      <c r="G946" t="n">
+        <v>40</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>4465</v>
+      </c>
+      <c r="C947" t="n">
+        <v>-191</v>
+      </c>
+      <c r="D947" t="n">
+        <v>33698</v>
+      </c>
+      <c r="E947" t="n">
+        <v>495</v>
+      </c>
+      <c r="F947" t="n">
+        <v>511</v>
+      </c>
+      <c r="G947" t="n">
+        <v>4</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>15414</v>
+      </c>
+      <c r="C948" t="n">
+        <v>-281</v>
+      </c>
+      <c r="D948" t="n">
+        <v>133615</v>
+      </c>
+      <c r="E948" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F948" t="n">
+        <v>3574</v>
+      </c>
+      <c r="G948" t="n">
+        <v>8</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>10401</v>
+      </c>
+      <c r="C949" t="n">
+        <v>-172</v>
+      </c>
+      <c r="D949" t="n">
+        <v>131228</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1225</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1592</v>
+      </c>
+      <c r="G949" t="n">
+        <v>13</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>2637</v>
+      </c>
+      <c r="C950" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D950" t="n">
+        <v>14690</v>
+      </c>
+      <c r="E950" t="n">
+        <v>219</v>
+      </c>
+      <c r="F950" t="n">
+        <v>251</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>9992</v>
+      </c>
+      <c r="C951" t="n">
+        <v>-474</v>
+      </c>
+      <c r="D951" t="n">
+        <v>72706</v>
+      </c>
+      <c r="E951" t="n">
+        <v>861</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G951" t="n">
+        <v>11</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>7776</v>
+      </c>
+      <c r="C952" t="n">
+        <v>-391</v>
+      </c>
+      <c r="D952" t="n">
+        <v>84461</v>
+      </c>
+      <c r="E952" t="n">
+        <v>890</v>
+      </c>
+      <c r="F952" t="n">
+        <v>798</v>
+      </c>
+      <c r="G952" t="n">
+        <v>11</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>115795</v>
+      </c>
+      <c r="C953" t="n">
+        <v>-4494</v>
+      </c>
+      <c r="D953" t="n">
+        <v>592084</v>
+      </c>
+      <c r="E953" t="n">
+        <v>12030</v>
+      </c>
+      <c r="F953" t="n">
+        <v>10036</v>
+      </c>
+      <c r="G953" t="n">
+        <v>70</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>94473</v>
+      </c>
+      <c r="C954" t="n">
+        <v>-1928</v>
+      </c>
+      <c r="D954" t="n">
+        <v>199634</v>
+      </c>
+      <c r="E954" t="n">
+        <v>7836</v>
+      </c>
+      <c r="F954" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G954" t="n">
+        <v>22</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>961</v>
+      </c>
+      <c r="C955" t="n">
+        <v>-19</v>
+      </c>
+      <c r="D955" t="n">
+        <v>4126</v>
+      </c>
+      <c r="E955" t="n">
+        <v>89</v>
+      </c>
+      <c r="F955" t="n">
+        <v>64</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>14932</v>
+      </c>
+      <c r="C956" t="n">
+        <v>-245</v>
+      </c>
+      <c r="D956" t="n">
+        <v>130721</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F956" t="n">
+        <v>2645</v>
+      </c>
+      <c r="G956" t="n">
+        <v>21</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>212905</v>
+      </c>
+      <c r="C957" t="n">
+        <v>-8732</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1281896</v>
+      </c>
+      <c r="E957" t="n">
+        <v>15656</v>
+      </c>
+      <c r="F957" t="n">
+        <v>40514</v>
+      </c>
+      <c r="G957" t="n">
+        <v>165</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>2756</v>
+      </c>
+      <c r="C958" t="n">
+        <v>25</v>
+      </c>
+      <c r="D958" t="n">
+        <v>10707</v>
+      </c>
+      <c r="E958" t="n">
+        <v>203</v>
+      </c>
+      <c r="F958" t="n">
+        <v>93</v>
+      </c>
+      <c r="G958" t="n">
+        <v>2</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>2434</v>
+      </c>
+      <c r="C959" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D959" t="n">
+        <v>5273</v>
+      </c>
+      <c r="E959" t="n">
+        <v>131</v>
+      </c>
+      <c r="F959" t="n">
+        <v>64</v>
+      </c>
+      <c r="G959" t="n">
+        <v>1</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>156</v>
+      </c>
+      <c r="C960" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D960" t="n">
+        <v>2046</v>
+      </c>
+      <c r="E960" t="n">
+        <v>36</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C961" t="n">
+        <v>150</v>
+      </c>
+      <c r="D961" t="n">
+        <v>5813</v>
+      </c>
+      <c r="E961" t="n">
+        <v>70</v>
+      </c>
+      <c r="F961" t="n">
+        <v>18</v>
+      </c>
+      <c r="G961" t="n">
+        <v>1</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>23430</v>
+      </c>
+      <c r="C962" t="n">
+        <v>-172</v>
+      </c>
+      <c r="D962" t="n">
+        <v>230192</v>
+      </c>
+      <c r="E962" t="n">
+        <v>2577</v>
+      </c>
+      <c r="F962" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G962" t="n">
+        <v>18</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>4617</v>
+      </c>
+      <c r="C963" t="n">
+        <v>-78</v>
+      </c>
+      <c r="D963" t="n">
+        <v>26555</v>
+      </c>
+      <c r="E963" t="n">
+        <v>264</v>
+      </c>
+      <c r="F963" t="n">
+        <v>565</v>
+      </c>
+      <c r="G963" t="n">
+        <v>2</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>8576</v>
+      </c>
+      <c r="C964" t="n">
+        <v>-699</v>
+      </c>
+      <c r="D964" t="n">
+        <v>112099</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1234</v>
+      </c>
+      <c r="F964" t="n">
+        <v>3860</v>
+      </c>
+      <c r="G964" t="n">
+        <v>27</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>21671</v>
+      </c>
+      <c r="C965" t="n">
+        <v>259</v>
+      </c>
+      <c r="D965" t="n">
+        <v>137848</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1858</v>
+      </c>
+      <c r="F965" t="n">
+        <v>1665</v>
+      </c>
+      <c r="G965" t="n">
+        <v>15</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>384</v>
+      </c>
+      <c r="C966" t="n">
+        <v>0</v>
+      </c>
+      <c r="D966" t="n">
+        <v>2925</v>
+      </c>
+      <c r="E966" t="n">
+        <v>5</v>
+      </c>
+      <c r="F966" t="n">
+        <v>57</v>
+      </c>
+      <c r="G966" t="n">
+        <v>2</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C967" t="n">
+        <v>-348</v>
+      </c>
+      <c r="D967" t="n">
+        <v>607203</v>
+      </c>
+      <c r="E967" t="n">
+        <v>5165</v>
+      </c>
+      <c r="F967" t="n">
+        <v>10314</v>
+      </c>
+      <c r="G967" t="n">
+        <v>62</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>24208</v>
+      </c>
+      <c r="C968" t="n">
+        <v>-306</v>
+      </c>
+      <c r="D968" t="n">
+        <v>189351</v>
+      </c>
+      <c r="E968" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F968" t="n">
+        <v>1233</v>
+      </c>
+      <c r="G968" t="n">
+        <v>5</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>3738</v>
+      </c>
+      <c r="C969" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D969" t="n">
+        <v>24623</v>
+      </c>
+      <c r="E969" t="n">
+        <v>220</v>
+      </c>
+      <c r="F969" t="n">
+        <v>317</v>
+      </c>
+      <c r="G969" t="n">
+        <v>1</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>6976</v>
+      </c>
+      <c r="C970" t="n">
+        <v>-397</v>
+      </c>
+      <c r="D970" t="n">
+        <v>47609</v>
+      </c>
+      <c r="E970" t="n">
+        <v>678</v>
+      </c>
+      <c r="F970" t="n">
+        <v>762</v>
+      </c>
+      <c r="G970" t="n">
+        <v>15</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>38815</v>
+      </c>
+      <c r="C971" t="n">
+        <v>-1204</v>
+      </c>
+      <c r="D971" t="n">
+        <v>393908</v>
+      </c>
+      <c r="E971" t="n">
+        <v>3342</v>
+      </c>
+      <c r="F971" t="n">
+        <v>6438</v>
+      </c>
+      <c r="G971" t="n">
+        <v>44</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>30604</v>
+      </c>
+      <c r="C972" t="n">
+        <v>368</v>
+      </c>
+      <c r="D972" t="n">
+        <v>262103</v>
+      </c>
+      <c r="E972" t="n">
+        <v>3155</v>
+      </c>
+      <c r="F972" t="n">
+        <v>5682</v>
+      </c>
+      <c r="G972" t="n">
+        <v>60</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>13-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H972"/>
+  <dimension ref="A1:H1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -30035,6 +30035,1098 @@
         </is>
       </c>
     </row>
+    <row r="973">
+      <c r="A973" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B973" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C973" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D973" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E973" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F973" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G973" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H973" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>199</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1</v>
+      </c>
+      <c r="D974" t="n">
+        <v>3782</v>
+      </c>
+      <c r="E974" t="n">
+        <v>12</v>
+      </c>
+      <c r="F974" t="n">
+        <v>55</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>42855</v>
+      </c>
+      <c r="C975" t="n">
+        <v>-1128</v>
+      </c>
+      <c r="D975" t="n">
+        <v>714427</v>
+      </c>
+      <c r="E975" t="n">
+        <v>5715</v>
+      </c>
+      <c r="F975" t="n">
+        <v>6291</v>
+      </c>
+      <c r="G975" t="n">
+        <v>35</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>2960</v>
+      </c>
+      <c r="C976" t="n">
+        <v>20</v>
+      </c>
+      <c r="D976" t="n">
+        <v>9573</v>
+      </c>
+      <c r="E976" t="n">
+        <v>170</v>
+      </c>
+      <c r="F976" t="n">
+        <v>28</v>
+      </c>
+      <c r="G976" t="n">
+        <v>4</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>28897</v>
+      </c>
+      <c r="C977" t="n">
+        <v>458</v>
+      </c>
+      <c r="D977" t="n">
+        <v>167059</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F977" t="n">
+        <v>830</v>
+      </c>
+      <c r="G977" t="n">
+        <v>4</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>10835</v>
+      </c>
+      <c r="C978" t="n">
+        <v>166</v>
+      </c>
+      <c r="D978" t="n">
+        <v>187059</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1148</v>
+      </c>
+      <c r="F978" t="n">
+        <v>961</v>
+      </c>
+      <c r="G978" t="n">
+        <v>6</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>1127</v>
+      </c>
+      <c r="C979" t="n">
+        <v>-43</v>
+      </c>
+      <c r="D979" t="n">
+        <v>12007</v>
+      </c>
+      <c r="E979" t="n">
+        <v>109</v>
+      </c>
+      <c r="F979" t="n">
+        <v>197</v>
+      </c>
+      <c r="G979" t="n">
+        <v>5</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>27208</v>
+      </c>
+      <c r="C980" t="n">
+        <v>-213</v>
+      </c>
+      <c r="D980" t="n">
+        <v>119352</v>
+      </c>
+      <c r="E980" t="n">
+        <v>2812</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G980" t="n">
+        <v>20</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>85</v>
+      </c>
+      <c r="C981" t="n">
+        <v>-17</v>
+      </c>
+      <c r="D981" t="n">
+        <v>3081</v>
+      </c>
+      <c r="E981" t="n">
+        <v>17</v>
+      </c>
+      <c r="F981" t="n">
+        <v>2</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>21490</v>
+      </c>
+      <c r="C982" t="n">
+        <v>955</v>
+      </c>
+      <c r="D982" t="n">
+        <v>286880</v>
+      </c>
+      <c r="E982" t="n">
+        <v>2036</v>
+      </c>
+      <c r="F982" t="n">
+        <v>5854</v>
+      </c>
+      <c r="G982" t="n">
+        <v>45</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>4316</v>
+      </c>
+      <c r="C983" t="n">
+        <v>-149</v>
+      </c>
+      <c r="D983" t="n">
+        <v>34252</v>
+      </c>
+      <c r="E983" t="n">
+        <v>554</v>
+      </c>
+      <c r="F983" t="n">
+        <v>514</v>
+      </c>
+      <c r="G983" t="n">
+        <v>3</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>15187</v>
+      </c>
+      <c r="C984" t="n">
+        <v>-227</v>
+      </c>
+      <c r="D984" t="n">
+        <v>134990</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F984" t="n">
+        <v>3584</v>
+      </c>
+      <c r="G984" t="n">
+        <v>10</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>10319</v>
+      </c>
+      <c r="C985" t="n">
+        <v>-82</v>
+      </c>
+      <c r="D985" t="n">
+        <v>132382</v>
+      </c>
+      <c r="E985" t="n">
+        <v>1154</v>
+      </c>
+      <c r="F985" t="n">
+        <v>1601</v>
+      </c>
+      <c r="G985" t="n">
+        <v>9</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>2507</v>
+      </c>
+      <c r="C986" t="n">
+        <v>-130</v>
+      </c>
+      <c r="D986" t="n">
+        <v>15001</v>
+      </c>
+      <c r="E986" t="n">
+        <v>311</v>
+      </c>
+      <c r="F986" t="n">
+        <v>254</v>
+      </c>
+      <c r="G986" t="n">
+        <v>3</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>9866</v>
+      </c>
+      <c r="C987" t="n">
+        <v>-126</v>
+      </c>
+      <c r="D987" t="n">
+        <v>73502</v>
+      </c>
+      <c r="E987" t="n">
+        <v>796</v>
+      </c>
+      <c r="F987" t="n">
+        <v>1340</v>
+      </c>
+      <c r="G987" t="n">
+        <v>7</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>7617</v>
+      </c>
+      <c r="C988" t="n">
+        <v>-159</v>
+      </c>
+      <c r="D988" t="n">
+        <v>85314</v>
+      </c>
+      <c r="E988" t="n">
+        <v>853</v>
+      </c>
+      <c r="F988" t="n">
+        <v>805</v>
+      </c>
+      <c r="G988" t="n">
+        <v>7</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>113478</v>
+      </c>
+      <c r="C989" t="n">
+        <v>-2317</v>
+      </c>
+      <c r="D989" t="n">
+        <v>602505</v>
+      </c>
+      <c r="E989" t="n">
+        <v>10421</v>
+      </c>
+      <c r="F989" t="n">
+        <v>10123</v>
+      </c>
+      <c r="G989" t="n">
+        <v>87</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>95493</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D990" t="n">
+        <v>207357</v>
+      </c>
+      <c r="E990" t="n">
+        <v>7723</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1046</v>
+      </c>
+      <c r="G990" t="n">
+        <v>21</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>969</v>
+      </c>
+      <c r="C991" t="n">
+        <v>8</v>
+      </c>
+      <c r="D991" t="n">
+        <v>4205</v>
+      </c>
+      <c r="E991" t="n">
+        <v>79</v>
+      </c>
+      <c r="F991" t="n">
+        <v>64</v>
+      </c>
+      <c r="G991" t="n">
+        <v>0</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>14661</v>
+      </c>
+      <c r="C992" t="n">
+        <v>-271</v>
+      </c>
+      <c r="D992" t="n">
+        <v>132429</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1708</v>
+      </c>
+      <c r="F992" t="n">
+        <v>2671</v>
+      </c>
+      <c r="G992" t="n">
+        <v>26</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>205884</v>
+      </c>
+      <c r="C993" t="n">
+        <v>-7021</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1297252</v>
+      </c>
+      <c r="E993" t="n">
+        <v>15356</v>
+      </c>
+      <c r="F993" t="n">
+        <v>40701</v>
+      </c>
+      <c r="G993" t="n">
+        <v>187</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>2867</v>
+      </c>
+      <c r="C994" t="n">
+        <v>111</v>
+      </c>
+      <c r="D994" t="n">
+        <v>10829</v>
+      </c>
+      <c r="E994" t="n">
+        <v>122</v>
+      </c>
+      <c r="F994" t="n">
+        <v>97</v>
+      </c>
+      <c r="G994" t="n">
+        <v>4</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C995" t="n">
+        <v>-67</v>
+      </c>
+      <c r="D995" t="n">
+        <v>5406</v>
+      </c>
+      <c r="E995" t="n">
+        <v>133</v>
+      </c>
+      <c r="F995" t="n">
+        <v>65</v>
+      </c>
+      <c r="G995" t="n">
+        <v>1</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>119</v>
+      </c>
+      <c r="C996" t="n">
+        <v>-37</v>
+      </c>
+      <c r="D996" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E996" t="n">
+        <v>47</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0</v>
+      </c>
+      <c r="G996" t="n">
+        <v>0</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C997" t="n">
+        <v>104</v>
+      </c>
+      <c r="D997" t="n">
+        <v>5831</v>
+      </c>
+      <c r="E997" t="n">
+        <v>18</v>
+      </c>
+      <c r="F997" t="n">
+        <v>19</v>
+      </c>
+      <c r="G997" t="n">
+        <v>1</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>22892</v>
+      </c>
+      <c r="C998" t="n">
+        <v>-538</v>
+      </c>
+      <c r="D998" t="n">
+        <v>232988</v>
+      </c>
+      <c r="E998" t="n">
+        <v>2796</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G998" t="n">
+        <v>17</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>4572</v>
+      </c>
+      <c r="C999" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D999" t="n">
+        <v>26865</v>
+      </c>
+      <c r="E999" t="n">
+        <v>310</v>
+      </c>
+      <c r="F999" t="n">
+        <v>567</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>8212</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>-364</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>113105</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>3894</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>34</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>21924</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>253</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>139616</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>1679</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>3014</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>43239</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>-508</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>612320</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>5117</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>10371</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>57</v>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>23728</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>-480</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>191269</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1918</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>1241</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>3500</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>-238</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>25041</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>418</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>318</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>6576</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>-400</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>48283</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>674</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>782</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>38082</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>-733</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>397570</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>3662</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>6466</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>30988</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>384</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>265288</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>3185</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>5744</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>62</v>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>14-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1008"/>
+  <dimension ref="A1:H1044"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -31127,6 +31127,1098 @@
         </is>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B1009" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C1009" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D1009" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E1009" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F1009" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G1009" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H1009" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>3796</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>55</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B1011" t="n">
+        <v>41669</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>-1186</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>719477</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>6319</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>85</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>9694</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>121</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>29307</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>168072</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>834</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>10756</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>-79</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>188380</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>967</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>-42</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>12119</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>199</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>27809</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>601</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>121548</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>2196</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>1339</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>33</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>3090</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>21903</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>413</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>289747</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>2867</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>5898</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>44</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>4188</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>-128</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>34731</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>479</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>519</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>14937</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>-250</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>136404</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>3595</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>10187</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>-132</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>133706</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1324</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1614</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>15233</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>232</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>255</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>9739</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>-127</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>74318</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>816</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>1352</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>7191</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>-426</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>86367</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>811</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>114006</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>528</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>611167</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>8662</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>10198</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>75</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>93925</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>-1568</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>215149</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>7792</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1066</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>979</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>4261</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>14432</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>-229</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>138158</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>5729</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>2686</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>196761</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>-9123</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1316769</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>19517</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>40859</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>158</v>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>3076</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>209</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>10915</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>2339</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>-28</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>5582</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>176</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>112</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2108</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>1478</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>5916</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>22716</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>-176</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>235763</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>2775</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>1062</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>4525</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>27152</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>287</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>568</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>7760</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>-452</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>114075</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>970</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>3925</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>31</v>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>21711</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>-213</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>141835</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>2219</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1694</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>-19</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>3075</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>42566</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>-673</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>617403</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>5083</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>10423</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>52</v>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>23203</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>-525</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>193218</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1949</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>3318</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>-182</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>25394</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>353</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>319</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>6145</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>-431</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>49129</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>846</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>796</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>36898</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>-1184</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>401306</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>3736</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>6507</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>41</v>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>31505</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>517</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>268384</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>3096</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>5808</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>64</v>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>15-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excelfiles/mycovid19.xlsx
+++ b/excelfiles/mycovid19.xlsx
@@ -533,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1044"/>
+  <dimension ref="A1:H1080"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
       <selection activeCell="I430" sqref="I430"/>
@@ -32219,6 +32219,1098 @@
         </is>
       </c>
     </row>
+    <row r="1045">
+      <c r="A1045" s="4" t="inlineStr">
+        <is>
+          <t>States/UT</t>
+        </is>
+      </c>
+      <c r="B1045" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases</t>
+        </is>
+      </c>
+      <c r="C1045" s="4" t="inlineStr">
+        <is>
+          <t>Active Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="D1045" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases</t>
+        </is>
+      </c>
+      <c r="E1045" s="4" t="inlineStr">
+        <is>
+          <t>Recovered Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="F1045" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases</t>
+        </is>
+      </c>
+      <c r="G1045" s="4" t="inlineStr">
+        <is>
+          <t>Deceased Cases Since Yesterday</t>
+        </is>
+      </c>
+      <c r="H1045" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>3817</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>55</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>40047</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>-1622</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>725099</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>5622</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>6357</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>38</v>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>3052</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>9889</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>195</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>28804</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>-503</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>169335</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>843</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>11038</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>282</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>189186</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>806</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>972</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>12232</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>201</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>28187</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>378</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>123943</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>2395</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>1385</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>46</v>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>3099</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>22605</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>702</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>292502</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>2755</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>5924</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>4084</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>-104</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>35161</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>430</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>525</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>14782</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>-155</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>137733</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>3606</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>10364</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>134719</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>1623</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>2654</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>134</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>15389</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>156</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>260</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>9058</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>-681</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>75641</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>1358</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>6892</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>-299</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>87240</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>873</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>820</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>113557</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>-449</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>620008</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>8841</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>10283</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>85</v>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>94609</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>684</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>222231</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>7082</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>1089</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>4310</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>49</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>14157</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>-275</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>139717</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1559</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>2710</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>192936</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>-3825</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>1330483</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>13714</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>41196</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>337</v>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>3193</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>126</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>11081</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>166</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>106</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>5646</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>108</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>2121</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>6017</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>22</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>22387</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>-329</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>238535</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>2772</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>1089</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>27</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>4551</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>27365</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>213</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>570</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>7090</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>-670</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>115186</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>3954</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>21587</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>-124</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>143984</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>2149</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>1708</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>3129</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>41872</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>-694</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>622458</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>5055</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>10472</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Telengana</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>23315</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>112</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>194653</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1435</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>1256</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>3105</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>-213</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>25765</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>371</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>323</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>5682</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>-463</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>49997</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>868</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>814</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>36295</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>-603</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>404545</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>3239</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>6543</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>31984</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>479</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>271563</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>3179</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>5870</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>62</v>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>16-10-2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
